--- a/双意图顺字段表.xlsx
+++ b/双意图顺字段表.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WeChat\Documents\WeChat Files\wxid_oghapbg2z18y21\FileStorage\File\2021-04\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\shuangyi\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1071,8 +1071,17 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1085,15 +1094,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1373,7 +1373,7 @@
   <dimension ref="A1:I218"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1389,7 +1389,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="15" t="s">
         <v>292</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -1400,7 +1400,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="14"/>
+      <c r="A2" s="17"/>
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1409,7 +1409,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="14"/>
+      <c r="A3" s="17"/>
       <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
@@ -1418,79 +1418,79 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="14"/>
+      <c r="A4" s="17"/>
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="14" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="14"/>
+      <c r="A5" s="17"/>
       <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="14" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="14"/>
+      <c r="A6" s="17"/>
       <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="E6" s="14" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" s="14"/>
+      <c r="A7" s="17"/>
       <c r="B7" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="14" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8" s="14"/>
+      <c r="A8" s="17"/>
       <c r="B8" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="20" t="s">
+      <c r="E8" s="14" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" s="14"/>
+      <c r="A9" s="17"/>
       <c r="B9" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="E9" s="14" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10" s="14"/>
+      <c r="A10" s="17"/>
       <c r="B10" s="2" t="s">
         <v>18</v>
       </c>
@@ -1502,7 +1502,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11" s="14"/>
+      <c r="A11" s="17"/>
       <c r="B11" s="2" t="s">
         <v>21</v>
       </c>
@@ -1511,7 +1511,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A12" s="14"/>
+      <c r="A12" s="17"/>
       <c r="B12" s="2" t="s">
         <v>23</v>
       </c>
@@ -1520,7 +1520,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A13" s="14"/>
+      <c r="A13" s="17"/>
       <c r="B13" s="2" t="s">
         <v>25</v>
       </c>
@@ -1539,7 +1539,7 @@
       <c r="C15" s="4"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="18" t="s">
         <v>293</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -1550,7 +1550,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A17" s="16"/>
+      <c r="A17" s="19"/>
       <c r="B17" s="2" t="s">
         <v>27</v>
       </c>
@@ -1559,7 +1559,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A18" s="16"/>
+      <c r="A18" s="19"/>
       <c r="B18" s="2" t="s">
         <v>29</v>
       </c>
@@ -1568,7 +1568,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A19" s="16"/>
+      <c r="A19" s="19"/>
       <c r="B19" s="2" t="s">
         <v>31</v>
       </c>
@@ -1577,7 +1577,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A20" s="16"/>
+      <c r="A20" s="19"/>
       <c r="B20" s="2" t="s">
         <v>33</v>
       </c>
@@ -1586,7 +1586,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A21" s="16"/>
+      <c r="A21" s="19"/>
       <c r="B21" s="2" t="s">
         <v>35</v>
       </c>
@@ -1595,7 +1595,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A22" s="16"/>
+      <c r="A22" s="19"/>
       <c r="B22" s="2" t="s">
         <v>37</v>
       </c>
@@ -1604,7 +1604,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A23" s="16"/>
+      <c r="A23" s="19"/>
       <c r="B23" s="2" t="s">
         <v>39</v>
       </c>
@@ -1613,7 +1613,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A24" s="16"/>
+      <c r="A24" s="19"/>
       <c r="B24" s="2" t="s">
         <v>41</v>
       </c>
@@ -1622,7 +1622,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A25" s="16"/>
+      <c r="A25" s="19"/>
       <c r="B25" s="2" t="s">
         <v>43</v>
       </c>
@@ -1631,7 +1631,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A26" s="16"/>
+      <c r="A26" s="19"/>
       <c r="B26" s="2" t="s">
         <v>45</v>
       </c>
@@ -1640,7 +1640,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A27" s="16"/>
+      <c r="A27" s="19"/>
       <c r="B27" s="2" t="s">
         <v>47</v>
       </c>
@@ -1649,7 +1649,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A28" s="16"/>
+      <c r="A28" s="19"/>
       <c r="B28" s="2" t="s">
         <v>21</v>
       </c>
@@ -1658,7 +1658,7 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A29" s="16"/>
+      <c r="A29" s="19"/>
       <c r="B29" s="2" t="s">
         <v>23</v>
       </c>
@@ -1667,7 +1667,7 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A30" s="16"/>
+      <c r="A30" s="19"/>
       <c r="B30" s="2" t="s">
         <v>25</v>
       </c>
@@ -1684,7 +1684,7 @@
       <c r="C32" s="4"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A33" s="15" t="s">
+      <c r="A33" s="18" t="s">
         <v>294</v>
       </c>
       <c r="B33" s="2" t="s">
@@ -1695,19 +1695,19 @@
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A34" s="16"/>
+      <c r="A34" s="19"/>
       <c r="B34" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E34" s="20" t="s">
+      <c r="E34" s="14" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A35" s="16"/>
+      <c r="A35" s="19"/>
       <c r="B35" s="2" t="s">
         <v>21</v>
       </c>
@@ -1716,7 +1716,7 @@
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A36" s="16"/>
+      <c r="A36" s="19"/>
       <c r="B36" s="2" t="s">
         <v>23</v>
       </c>
@@ -1725,7 +1725,7 @@
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A37" s="16"/>
+      <c r="A37" s="19"/>
       <c r="B37" s="2" t="s">
         <v>25</v>
       </c>
@@ -1744,7 +1744,7 @@
       <c r="A40" s="5"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A41" s="17" t="s">
+      <c r="A41" s="20" t="s">
         <v>53</v>
       </c>
       <c r="B41" s="2" t="s">
@@ -1755,7 +1755,7 @@
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A42" s="17"/>
+      <c r="A42" s="20"/>
       <c r="B42" s="2" t="s">
         <v>56</v>
       </c>
@@ -1764,7 +1764,7 @@
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A43" s="17"/>
+      <c r="A43" s="20"/>
       <c r="B43" s="2" t="s">
         <v>58</v>
       </c>
@@ -1773,7 +1773,7 @@
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A44" s="17"/>
+      <c r="A44" s="20"/>
       <c r="B44" s="2" t="s">
         <v>60</v>
       </c>
@@ -1783,7 +1783,7 @@
       <c r="I44" s="9"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A45" s="17"/>
+      <c r="A45" s="20"/>
       <c r="B45" s="2" t="s">
         <v>62</v>
       </c>
@@ -1792,7 +1792,7 @@
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A46" s="17"/>
+      <c r="A46" s="20"/>
       <c r="B46" s="2" t="s">
         <v>64</v>
       </c>
@@ -1804,7 +1804,7 @@
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A47" s="17"/>
+      <c r="A47" s="20"/>
       <c r="B47" s="2" t="s">
         <v>21</v>
       </c>
@@ -1813,7 +1813,7 @@
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A48" s="17"/>
+      <c r="A48" s="20"/>
       <c r="B48" s="2" t="s">
         <v>23</v>
       </c>
@@ -1823,7 +1823,7 @@
       <c r="I48" s="9"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A49" s="17"/>
+      <c r="A49" s="20"/>
       <c r="B49" s="2" t="s">
         <v>25</v>
       </c>
@@ -1836,7 +1836,7 @@
       <c r="I50" s="9"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A51" s="13" t="s">
+      <c r="A51" s="15" t="s">
         <v>66</v>
       </c>
       <c r="B51" s="2" t="s">
@@ -1848,7 +1848,7 @@
       <c r="I51" s="9"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A52" s="18"/>
+      <c r="A52" s="16"/>
       <c r="B52" s="2" t="s">
         <v>69</v>
       </c>
@@ -1858,7 +1858,7 @@
       <c r="I52" s="9"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A53" s="18"/>
+      <c r="A53" s="16"/>
       <c r="B53" s="2" t="s">
         <v>70</v>
       </c>
@@ -1867,7 +1867,7 @@
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A54" s="18"/>
+      <c r="A54" s="16"/>
       <c r="B54" s="3" t="s">
         <v>72</v>
       </c>
@@ -1877,7 +1877,7 @@
       <c r="I54" s="9"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A55" s="18"/>
+      <c r="A55" s="16"/>
       <c r="B55" s="2" t="s">
         <v>74</v>
       </c>
@@ -1887,7 +1887,7 @@
       <c r="I55" s="9"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A56" s="18"/>
+      <c r="A56" s="16"/>
       <c r="B56" s="2" t="s">
         <v>49</v>
       </c>
@@ -1897,7 +1897,7 @@
       <c r="I56" s="9"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A57" s="18"/>
+      <c r="A57" s="16"/>
       <c r="B57" s="2" t="s">
         <v>77</v>
       </c>
@@ -1910,7 +1910,7 @@
       <c r="I57" s="9"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A58" s="18"/>
+      <c r="A58" s="16"/>
       <c r="B58" s="3" t="s">
         <v>80</v>
       </c>
@@ -1925,7 +1925,7 @@
       <c r="I58" s="10"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A59" s="18"/>
+      <c r="A59" s="16"/>
       <c r="B59" s="3" t="s">
         <v>83</v>
       </c>
@@ -1935,7 +1935,7 @@
       <c r="I59" s="9"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A60" s="18"/>
+      <c r="A60" s="16"/>
       <c r="B60" s="3" t="s">
         <v>85</v>
       </c>
@@ -1948,7 +1948,7 @@
       <c r="I60" s="9"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A61" s="18"/>
+      <c r="A61" s="16"/>
       <c r="B61" s="2" t="s">
         <v>88</v>
       </c>
@@ -1958,7 +1958,7 @@
       <c r="I61" s="9"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A62" s="18"/>
+      <c r="A62" s="16"/>
       <c r="B62" s="2" t="s">
         <v>90</v>
       </c>
@@ -1968,7 +1968,7 @@
       <c r="I62" s="9"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A63" s="18"/>
+      <c r="A63" s="16"/>
       <c r="B63" s="2" t="s">
         <v>92</v>
       </c>
@@ -1978,7 +1978,7 @@
       <c r="I63" s="9"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A64" s="18"/>
+      <c r="A64" s="16"/>
       <c r="B64" s="2" t="s">
         <v>94</v>
       </c>
@@ -1988,7 +1988,7 @@
       <c r="I64" s="9"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A65" s="18"/>
+      <c r="A65" s="16"/>
       <c r="B65" s="3" t="s">
         <v>96</v>
       </c>
@@ -2000,7 +2000,7 @@
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A66" s="18"/>
+      <c r="A66" s="16"/>
       <c r="B66" s="3" t="s">
         <v>99</v>
       </c>
@@ -2009,7 +2009,7 @@
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A67" s="18"/>
+      <c r="A67" s="16"/>
       <c r="B67" s="2" t="s">
         <v>21</v>
       </c>
@@ -2018,7 +2018,7 @@
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A68" s="18"/>
+      <c r="A68" s="16"/>
       <c r="B68" s="2" t="s">
         <v>23</v>
       </c>
@@ -2027,7 +2027,7 @@
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A69" s="18"/>
+      <c r="A69" s="16"/>
       <c r="B69" s="2" t="s">
         <v>25</v>
       </c>
@@ -2036,7 +2036,7 @@
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A72" s="13" t="s">
+      <c r="A72" s="15" t="s">
         <v>101</v>
       </c>
       <c r="B72" s="3" t="s">
@@ -2047,7 +2047,7 @@
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A73" s="18"/>
+      <c r="A73" s="16"/>
       <c r="B73" s="3" t="s">
         <v>102</v>
       </c>
@@ -2056,7 +2056,7 @@
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A74" s="18"/>
+      <c r="A74" s="16"/>
       <c r="B74" s="3" t="s">
         <v>103</v>
       </c>
@@ -2065,7 +2065,7 @@
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A75" s="18"/>
+      <c r="A75" s="16"/>
       <c r="B75" s="3" t="s">
         <v>104</v>
       </c>
@@ -2074,7 +2074,7 @@
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A76" s="18"/>
+      <c r="A76" s="16"/>
       <c r="B76" s="3" t="s">
         <v>106</v>
       </c>
@@ -2083,7 +2083,7 @@
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A77" s="18"/>
+      <c r="A77" s="16"/>
       <c r="B77" s="3" t="s">
         <v>108</v>
       </c>
@@ -2098,7 +2098,7 @@
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A78" s="18"/>
+      <c r="A78" s="16"/>
       <c r="B78" s="3" t="s">
         <v>112</v>
       </c>
@@ -2107,7 +2107,7 @@
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A79" s="18"/>
+      <c r="A79" s="16"/>
       <c r="B79" s="3" t="s">
         <v>114</v>
       </c>
@@ -2116,7 +2116,7 @@
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A80" s="18"/>
+      <c r="A80" s="16"/>
       <c r="B80" s="3" t="s">
         <v>116</v>
       </c>
@@ -2128,7 +2128,7 @@
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A81" s="18"/>
+      <c r="A81" s="16"/>
       <c r="B81" s="3" t="s">
         <v>99</v>
       </c>
@@ -2137,7 +2137,7 @@
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A82" s="18"/>
+      <c r="A82" s="16"/>
       <c r="B82" s="2" t="s">
         <v>21</v>
       </c>
@@ -2146,7 +2146,7 @@
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A83" s="18"/>
+      <c r="A83" s="16"/>
       <c r="B83" s="2" t="s">
         <v>23</v>
       </c>
@@ -2155,7 +2155,7 @@
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A84" s="18"/>
+      <c r="A84" s="16"/>
       <c r="B84" s="2" t="s">
         <v>119</v>
       </c>
@@ -2164,7 +2164,7 @@
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A85" s="18"/>
+      <c r="A85" s="16"/>
       <c r="B85" s="2" t="s">
         <v>25</v>
       </c>
@@ -2179,7 +2179,7 @@
       <c r="B91" s="9"/>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A92" s="13" t="s">
+      <c r="A92" s="15" t="s">
         <v>121</v>
       </c>
       <c r="B92" s="3" t="s">
@@ -2190,7 +2190,7 @@
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A93" s="13"/>
+      <c r="A93" s="15"/>
       <c r="B93" s="3" t="s">
         <v>123</v>
       </c>
@@ -2199,7 +2199,7 @@
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A94" s="13"/>
+      <c r="A94" s="15"/>
       <c r="B94" s="3" t="s">
         <v>124</v>
       </c>
@@ -2208,7 +2208,7 @@
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A95" s="13"/>
+      <c r="A95" s="15"/>
       <c r="B95" s="3" t="s">
         <v>126</v>
       </c>
@@ -2217,7 +2217,7 @@
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A96" s="13"/>
+      <c r="A96" s="15"/>
       <c r="B96" s="3" t="s">
         <v>128</v>
       </c>
@@ -2226,7 +2226,7 @@
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A97" s="13"/>
+      <c r="A97" s="15"/>
       <c r="B97" s="3" t="s">
         <v>130</v>
       </c>
@@ -2238,7 +2238,7 @@
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A98" s="13"/>
+      <c r="A98" s="15"/>
       <c r="B98" s="3" t="s">
         <v>133</v>
       </c>
@@ -2250,7 +2250,7 @@
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A99" s="13"/>
+      <c r="A99" s="15"/>
       <c r="B99" s="2" t="s">
         <v>54</v>
       </c>
@@ -2259,7 +2259,7 @@
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A100" s="13"/>
+      <c r="A100" s="15"/>
       <c r="B100" s="2" t="s">
         <v>136</v>
       </c>
@@ -2268,7 +2268,7 @@
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A101" s="13"/>
+      <c r="A101" s="15"/>
       <c r="B101" s="2" t="s">
         <v>138</v>
       </c>
@@ -2280,7 +2280,7 @@
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A102" s="13"/>
+      <c r="A102" s="15"/>
       <c r="B102" s="2" t="s">
         <v>141</v>
       </c>
@@ -2289,7 +2289,7 @@
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A103" s="13"/>
+      <c r="A103" s="15"/>
       <c r="B103" s="3" t="s">
         <v>143</v>
       </c>
@@ -2298,7 +2298,7 @@
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A104" s="13"/>
+      <c r="A104" s="15"/>
       <c r="B104" s="3" t="s">
         <v>145</v>
       </c>
@@ -2307,7 +2307,7 @@
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A105" s="13"/>
+      <c r="A105" s="15"/>
       <c r="B105" s="3" t="s">
         <v>147</v>
       </c>
@@ -2316,7 +2316,7 @@
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A106" s="13"/>
+      <c r="A106" s="15"/>
       <c r="B106" s="3" t="s">
         <v>149</v>
       </c>
@@ -2325,7 +2325,7 @@
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A107" s="13"/>
+      <c r="A107" s="15"/>
       <c r="B107" s="3" t="s">
         <v>151</v>
       </c>
@@ -2334,7 +2334,7 @@
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A108" s="13"/>
+      <c r="A108" s="15"/>
       <c r="B108" s="3" t="s">
         <v>153</v>
       </c>
@@ -2343,7 +2343,7 @@
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A109" s="13"/>
+      <c r="A109" s="15"/>
       <c r="B109" s="3" t="s">
         <v>99</v>
       </c>
@@ -2352,7 +2352,7 @@
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A110" s="13"/>
+      <c r="A110" s="15"/>
       <c r="B110" s="2" t="s">
         <v>155</v>
       </c>
@@ -2361,7 +2361,7 @@
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A111" s="13"/>
+      <c r="A111" s="15"/>
       <c r="B111" s="2" t="s">
         <v>21</v>
       </c>
@@ -2370,7 +2370,7 @@
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A112" s="13"/>
+      <c r="A112" s="15"/>
       <c r="B112" s="2" t="s">
         <v>23</v>
       </c>
@@ -2379,7 +2379,7 @@
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A113" s="13"/>
+      <c r="A113" s="15"/>
       <c r="B113" s="2" t="s">
         <v>119</v>
       </c>
@@ -2388,7 +2388,7 @@
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A114" s="13"/>
+      <c r="A114" s="15"/>
       <c r="B114" s="2" t="s">
         <v>25</v>
       </c>
@@ -2397,7 +2397,7 @@
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A117" s="13" t="s">
+      <c r="A117" s="15" t="s">
         <v>157</v>
       </c>
       <c r="B117" s="3" t="s">
@@ -2408,7 +2408,7 @@
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A118" s="18"/>
+      <c r="A118" s="16"/>
       <c r="B118" s="3" t="s">
         <v>160</v>
       </c>
@@ -2417,7 +2417,7 @@
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A119" s="18"/>
+      <c r="A119" s="16"/>
       <c r="B119" s="3" t="s">
         <v>161</v>
       </c>
@@ -2429,7 +2429,7 @@
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A120" s="18"/>
+      <c r="A120" s="16"/>
       <c r="B120" s="3" t="s">
         <v>163</v>
       </c>
@@ -2438,7 +2438,7 @@
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A121" s="18"/>
+      <c r="A121" s="16"/>
       <c r="B121" s="3" t="s">
         <v>165</v>
       </c>
@@ -2447,7 +2447,7 @@
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A122" s="18"/>
+      <c r="A122" s="16"/>
       <c r="B122" s="3" t="s">
         <v>167</v>
       </c>
@@ -2456,7 +2456,7 @@
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A123" s="18"/>
+      <c r="A123" s="16"/>
       <c r="B123" s="3" t="s">
         <v>169</v>
       </c>
@@ -2465,7 +2465,7 @@
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A124" s="18"/>
+      <c r="A124" s="16"/>
       <c r="B124" s="3" t="s">
         <v>171</v>
       </c>
@@ -2474,7 +2474,7 @@
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A125" s="18"/>
+      <c r="A125" s="16"/>
       <c r="B125" s="3" t="s">
         <v>122</v>
       </c>
@@ -2483,7 +2483,7 @@
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A126" s="18"/>
+      <c r="A126" s="16"/>
       <c r="B126" s="3" t="s">
         <v>173</v>
       </c>
@@ -2492,7 +2492,7 @@
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A127" s="18"/>
+      <c r="A127" s="16"/>
       <c r="B127" s="3" t="s">
         <v>99</v>
       </c>
@@ -2501,7 +2501,7 @@
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A128" s="18"/>
+      <c r="A128" s="16"/>
       <c r="B128" s="2" t="s">
         <v>21</v>
       </c>
@@ -2510,7 +2510,7 @@
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A129" s="18"/>
+      <c r="A129" s="16"/>
       <c r="B129" s="2" t="s">
         <v>23</v>
       </c>
@@ -2519,7 +2519,7 @@
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A130" s="18"/>
+      <c r="A130" s="16"/>
       <c r="B130" s="2" t="s">
         <v>119</v>
       </c>
@@ -2528,7 +2528,7 @@
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A131" s="18"/>
+      <c r="A131" s="16"/>
       <c r="B131" s="2" t="s">
         <v>25</v>
       </c>
@@ -2537,7 +2537,7 @@
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A136" s="13" t="s">
+      <c r="A136" s="15" t="s">
         <v>174</v>
       </c>
       <c r="B136" s="3" t="s">
@@ -2548,7 +2548,7 @@
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A137" s="18"/>
+      <c r="A137" s="16"/>
       <c r="B137" s="3" t="s">
         <v>67</v>
       </c>
@@ -2557,7 +2557,7 @@
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A138" s="18"/>
+      <c r="A138" s="16"/>
       <c r="B138" s="3" t="s">
         <v>177</v>
       </c>
@@ -2569,7 +2569,7 @@
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A139" s="18"/>
+      <c r="A139" s="16"/>
       <c r="B139" s="3" t="s">
         <v>180</v>
       </c>
@@ -2578,7 +2578,7 @@
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A140" s="18"/>
+      <c r="A140" s="16"/>
       <c r="B140" s="3" t="s">
         <v>182</v>
       </c>
@@ -2587,7 +2587,7 @@
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A141" s="18"/>
+      <c r="A141" s="16"/>
       <c r="B141" s="3" t="s">
         <v>184</v>
       </c>
@@ -2599,7 +2599,7 @@
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A142" s="18"/>
+      <c r="A142" s="16"/>
       <c r="B142" s="3" t="s">
         <v>187</v>
       </c>
@@ -2608,7 +2608,7 @@
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A143" s="18"/>
+      <c r="A143" s="16"/>
       <c r="B143" s="3" t="s">
         <v>189</v>
       </c>
@@ -2617,7 +2617,7 @@
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A144" s="18"/>
+      <c r="A144" s="16"/>
       <c r="B144" s="3" t="s">
         <v>191</v>
       </c>
@@ -2626,7 +2626,7 @@
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A145" s="18"/>
+      <c r="A145" s="16"/>
       <c r="B145" s="3" t="s">
         <v>193</v>
       </c>
@@ -2635,7 +2635,7 @@
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A146" s="18"/>
+      <c r="A146" s="16"/>
       <c r="B146" s="3" t="s">
         <v>195</v>
       </c>
@@ -2644,7 +2644,7 @@
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A147" s="18"/>
+      <c r="A147" s="16"/>
       <c r="B147" s="3" t="s">
         <v>99</v>
       </c>
@@ -2653,7 +2653,7 @@
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A148" s="18"/>
+      <c r="A148" s="16"/>
       <c r="B148" s="2" t="s">
         <v>21</v>
       </c>
@@ -2662,7 +2662,7 @@
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A149" s="18"/>
+      <c r="A149" s="16"/>
       <c r="B149" s="2" t="s">
         <v>23</v>
       </c>
@@ -2671,7 +2671,7 @@
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A150" s="18"/>
+      <c r="A150" s="16"/>
       <c r="B150" s="2" t="s">
         <v>119</v>
       </c>
@@ -2680,7 +2680,7 @@
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A151" s="18"/>
+      <c r="A151" s="16"/>
       <c r="B151" s="2" t="s">
         <v>25</v>
       </c>
@@ -2689,7 +2689,7 @@
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A153" s="13" t="s">
+      <c r="A153" s="15" t="s">
         <v>197</v>
       </c>
       <c r="B153" s="3" t="s">
@@ -2700,7 +2700,7 @@
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A154" s="13"/>
+      <c r="A154" s="15"/>
       <c r="B154" s="3" t="s">
         <v>200</v>
       </c>
@@ -2709,7 +2709,7 @@
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A155" s="13"/>
+      <c r="A155" s="15"/>
       <c r="B155" s="3" t="s">
         <v>177</v>
       </c>
@@ -2718,7 +2718,7 @@
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A156" s="13"/>
+      <c r="A156" s="15"/>
       <c r="B156" s="3" t="s">
         <v>201</v>
       </c>
@@ -2727,7 +2727,7 @@
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A157" s="13"/>
+      <c r="A157" s="15"/>
       <c r="B157" s="3" t="s">
         <v>203</v>
       </c>
@@ -2736,7 +2736,7 @@
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A158" s="13"/>
+      <c r="A158" s="15"/>
       <c r="B158" s="3" t="s">
         <v>205</v>
       </c>
@@ -2745,7 +2745,7 @@
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A159" s="13"/>
+      <c r="A159" s="15"/>
       <c r="B159" s="3" t="s">
         <v>207</v>
       </c>
@@ -2757,7 +2757,7 @@
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A160" s="13"/>
+      <c r="A160" s="15"/>
       <c r="B160" s="3" t="s">
         <v>210</v>
       </c>
@@ -2766,7 +2766,7 @@
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A161" s="13"/>
+      <c r="A161" s="15"/>
       <c r="B161" s="3" t="s">
         <v>212</v>
       </c>
@@ -2778,7 +2778,7 @@
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A162" s="13"/>
+      <c r="A162" s="15"/>
       <c r="B162" s="3" t="s">
         <v>214</v>
       </c>
@@ -2787,7 +2787,7 @@
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A163" s="13"/>
+      <c r="A163" s="15"/>
       <c r="B163" s="2" t="s">
         <v>99</v>
       </c>
@@ -2796,7 +2796,7 @@
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A164" s="13"/>
+      <c r="A164" s="15"/>
       <c r="B164" s="2" t="s">
         <v>21</v>
       </c>
@@ -2805,7 +2805,7 @@
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A165" s="13"/>
+      <c r="A165" s="15"/>
       <c r="B165" s="2" t="s">
         <v>23</v>
       </c>
@@ -2814,7 +2814,7 @@
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A166" s="13"/>
+      <c r="A166" s="15"/>
       <c r="B166" s="2" t="s">
         <v>25</v>
       </c>
@@ -2823,7 +2823,7 @@
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A169" s="13" t="s">
+      <c r="A169" s="15" t="s">
         <v>216</v>
       </c>
       <c r="B169" s="3" t="s">
@@ -2834,7 +2834,7 @@
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A170" s="18"/>
+      <c r="A170" s="16"/>
       <c r="B170" s="3" t="s">
         <v>218</v>
       </c>
@@ -2843,7 +2843,7 @@
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A171" s="18"/>
+      <c r="A171" s="16"/>
       <c r="B171" s="3" t="s">
         <v>220</v>
       </c>
@@ -2852,7 +2852,7 @@
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A172" s="18"/>
+      <c r="A172" s="16"/>
       <c r="B172" s="3" t="s">
         <v>222</v>
       </c>
@@ -2861,7 +2861,7 @@
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A173" s="18"/>
+      <c r="A173" s="16"/>
       <c r="B173" s="3" t="s">
         <v>224</v>
       </c>
@@ -2870,7 +2870,7 @@
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A174" s="18"/>
+      <c r="A174" s="16"/>
       <c r="B174" s="3" t="s">
         <v>226</v>
       </c>
@@ -2879,7 +2879,7 @@
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A175" s="18"/>
+      <c r="A175" s="16"/>
       <c r="B175" s="3" t="s">
         <v>228</v>
       </c>
@@ -2891,7 +2891,7 @@
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A176" s="18"/>
+      <c r="A176" s="16"/>
       <c r="B176" s="3" t="s">
         <v>231</v>
       </c>
@@ -2900,7 +2900,7 @@
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A177" s="18"/>
+      <c r="A177" s="16"/>
       <c r="B177" s="3" t="s">
         <v>233</v>
       </c>
@@ -2909,7 +2909,7 @@
       </c>
     </row>
     <row r="178" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A178" s="18"/>
+      <c r="A178" s="16"/>
       <c r="B178" s="3" t="s">
         <v>235</v>
       </c>
@@ -2919,7 +2919,7 @@
       <c r="E178" s="12"/>
     </row>
     <row r="179" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A179" s="18"/>
+      <c r="A179" s="16"/>
       <c r="B179" s="3" t="s">
         <v>237</v>
       </c>
@@ -2932,7 +2932,7 @@
       <c r="E179" s="12"/>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A180" s="18"/>
+      <c r="A180" s="16"/>
       <c r="B180" s="3" t="s">
         <v>240</v>
       </c>
@@ -2941,7 +2941,7 @@
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A181" s="18"/>
+      <c r="A181" s="16"/>
       <c r="B181" s="3" t="s">
         <v>242</v>
       </c>
@@ -2950,7 +2950,7 @@
       </c>
     </row>
     <row r="182" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A182" s="18"/>
+      <c r="A182" s="16"/>
       <c r="B182" s="3" t="s">
         <v>244</v>
       </c>
@@ -2960,13 +2960,13 @@
       <c r="E182" s="12"/>
     </row>
     <row r="183" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A183" s="18"/>
+      <c r="A183" s="16"/>
       <c r="B183" s="3"/>
       <c r="C183" s="11"/>
       <c r="E183" s="12"/>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A184" s="18"/>
+      <c r="A184" s="16"/>
       <c r="B184" s="3" t="s">
         <v>246</v>
       </c>
@@ -2975,7 +2975,7 @@
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A185" s="18"/>
+      <c r="A185" s="16"/>
       <c r="B185" s="3" t="s">
         <v>248</v>
       </c>
@@ -2984,7 +2984,7 @@
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A186" s="18"/>
+      <c r="A186" s="16"/>
       <c r="B186" s="3" t="s">
         <v>250</v>
       </c>
@@ -2993,7 +2993,7 @@
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A187" s="18"/>
+      <c r="A187" s="16"/>
       <c r="B187" s="3" t="s">
         <v>252</v>
       </c>
@@ -3002,19 +3002,19 @@
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A188" s="18"/>
+      <c r="A188" s="16"/>
       <c r="B188" s="3" t="s">
         <v>254</v>
       </c>
       <c r="C188" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="E188" s="19" t="s">
+      <c r="E188" s="13" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A189" s="18"/>
+      <c r="A189" s="16"/>
       <c r="B189" s="3" t="s">
         <v>256</v>
       </c>
@@ -3023,7 +3023,7 @@
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A190" s="18"/>
+      <c r="A190" s="16"/>
       <c r="B190" s="3" t="s">
         <v>258</v>
       </c>
@@ -3032,7 +3032,7 @@
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A191" s="18"/>
+      <c r="A191" s="16"/>
       <c r="B191" s="2" t="s">
         <v>99</v>
       </c>
@@ -3041,7 +3041,7 @@
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A192" s="18"/>
+      <c r="A192" s="16"/>
       <c r="B192" s="2" t="s">
         <v>21</v>
       </c>
@@ -3050,7 +3050,7 @@
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A193" s="18"/>
+      <c r="A193" s="16"/>
       <c r="B193" s="2" t="s">
         <v>23</v>
       </c>
@@ -3059,7 +3059,7 @@
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A194" s="18"/>
+      <c r="A194" s="16"/>
       <c r="B194" s="2" t="s">
         <v>25</v>
       </c>
@@ -3068,7 +3068,7 @@
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A197" s="13" t="s">
+      <c r="A197" s="15" t="s">
         <v>260</v>
       </c>
       <c r="B197" s="3" t="s">
@@ -3079,7 +3079,7 @@
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A198" s="13"/>
+      <c r="A198" s="15"/>
       <c r="B198" s="3" t="s">
         <v>263</v>
       </c>
@@ -3088,7 +3088,7 @@
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A199" s="13"/>
+      <c r="A199" s="15"/>
       <c r="B199" s="3" t="s">
         <v>264</v>
       </c>
@@ -3097,7 +3097,7 @@
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A200" s="13"/>
+      <c r="A200" s="15"/>
       <c r="B200" s="3" t="s">
         <v>265</v>
       </c>
@@ -3106,7 +3106,7 @@
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A201" s="13"/>
+      <c r="A201" s="15"/>
       <c r="B201" s="3" t="s">
         <v>266</v>
       </c>
@@ -3118,12 +3118,12 @@
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A202" s="13"/>
+      <c r="A202" s="15"/>
       <c r="B202" s="11"/>
       <c r="C202" s="11"/>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A203" s="13"/>
+      <c r="A203" s="15"/>
       <c r="B203" s="3" t="s">
         <v>269</v>
       </c>
@@ -3132,7 +3132,7 @@
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A204" s="13"/>
+      <c r="A204" s="15"/>
       <c r="B204" s="3" t="s">
         <v>271</v>
       </c>
@@ -3141,7 +3141,7 @@
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A205" s="13"/>
+      <c r="A205" s="15"/>
       <c r="B205" s="3" t="s">
         <v>273</v>
       </c>
@@ -3153,7 +3153,7 @@
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A206" s="13"/>
+      <c r="A206" s="15"/>
       <c r="B206" s="3" t="s">
         <v>276</v>
       </c>
@@ -3162,7 +3162,7 @@
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A207" s="13"/>
+      <c r="A207" s="15"/>
       <c r="B207" s="3" t="s">
         <v>278</v>
       </c>
@@ -3171,7 +3171,7 @@
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A208" s="13"/>
+      <c r="A208" s="15"/>
       <c r="B208" s="3" t="s">
         <v>280</v>
       </c>
@@ -3183,7 +3183,7 @@
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A209" s="13"/>
+      <c r="A209" s="15"/>
       <c r="B209" s="3" t="s">
         <v>283</v>
       </c>
@@ -3195,7 +3195,7 @@
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A210" s="13"/>
+      <c r="A210" s="15"/>
       <c r="B210" s="3" t="s">
         <v>286</v>
       </c>
@@ -3204,7 +3204,7 @@
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A211" s="13"/>
+      <c r="A211" s="15"/>
       <c r="B211" s="3" t="s">
         <v>288</v>
       </c>
@@ -3216,7 +3216,7 @@
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A212" s="13"/>
+      <c r="A212" s="15"/>
       <c r="B212" s="3" t="s">
         <v>214</v>
       </c>
@@ -3225,7 +3225,7 @@
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A213" s="13"/>
+      <c r="A213" s="15"/>
       <c r="B213" s="2" t="s">
         <v>99</v>
       </c>
@@ -3234,7 +3234,7 @@
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A214" s="13"/>
+      <c r="A214" s="15"/>
       <c r="B214" s="2" t="s">
         <v>21</v>
       </c>
@@ -3243,7 +3243,7 @@
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A215" s="13"/>
+      <c r="A215" s="15"/>
       <c r="B215" s="2" t="s">
         <v>23</v>
       </c>
@@ -3252,7 +3252,7 @@
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A216" s="13"/>
+      <c r="A216" s="15"/>
       <c r="B216" s="2" t="s">
         <v>25</v>
       </c>
@@ -3261,7 +3261,7 @@
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A217" s="13"/>
+      <c r="A217" s="15"/>
       <c r="B217" s="3" t="s">
         <v>119</v>
       </c>
@@ -3270,7 +3270,7 @@
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A218" s="13"/>
+      <c r="A218" s="15"/>
       <c r="B218" s="3" t="s">
         <v>256</v>
       </c>
@@ -3280,6 +3280,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:A13"/>
+    <mergeCell ref="A16:A30"/>
+    <mergeCell ref="A33:A37"/>
+    <mergeCell ref="A41:A49"/>
+    <mergeCell ref="A51:A69"/>
     <mergeCell ref="A169:A194"/>
     <mergeCell ref="A197:A218"/>
     <mergeCell ref="A72:A85"/>
@@ -3287,11 +3292,6 @@
     <mergeCell ref="A117:A131"/>
     <mergeCell ref="A136:A151"/>
     <mergeCell ref="A153:A166"/>
-    <mergeCell ref="A1:A13"/>
-    <mergeCell ref="A16:A30"/>
-    <mergeCell ref="A33:A37"/>
-    <mergeCell ref="A41:A49"/>
-    <mergeCell ref="A51:A69"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/双意图顺字段表.xlsx
+++ b/双意图顺字段表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="304">
   <si>
     <t>车辆字典序号</t>
   </si>
@@ -172,12 +172,6 @@
   </si>
   <si>
     <t>insureDataID</t>
-  </si>
-  <si>
-    <t>保险公司名称</t>
-  </si>
-  <si>
-    <t>insureName</t>
   </si>
   <si>
     <t>维修厂字典
@@ -220,718 +214,756 @@
     <t>合作中/解除合作</t>
   </si>
   <si>
+    <t>车辆编号</t>
+  </si>
+  <si>
+    <t>carID</t>
+  </si>
+  <si>
+    <t>车辆字典ID</t>
+  </si>
+  <si>
+    <t>车牌号</t>
+  </si>
+  <si>
+    <t>carNumber</t>
+  </si>
+  <si>
+    <t>发动机号</t>
+  </si>
+  <si>
+    <t>engineNumber</t>
+  </si>
+  <si>
+    <t>车架号</t>
+  </si>
+  <si>
+    <t>carFrameNumber</t>
+  </si>
+  <si>
+    <t>insureID</t>
+  </si>
+  <si>
+    <t>当前车辆状态</t>
+  </si>
+  <si>
+    <t>在库/出库</t>
+  </si>
+  <si>
+    <t>轮胎编码</t>
+  </si>
+  <si>
+    <t>轮胎如果替换，是否会换到一样规格的轮胎</t>
+  </si>
+  <si>
+    <t>轮胎规格</t>
+  </si>
+  <si>
+    <t>动力类型</t>
+  </si>
+  <si>
+    <t>powerType</t>
+  </si>
+  <si>
+    <t>燃油/纯电/油电混合</t>
+  </si>
+  <si>
+    <t>年检日期</t>
+  </si>
+  <si>
+    <t>yearCheckDate</t>
+  </si>
+  <si>
+    <t>车钥匙数量</t>
+  </si>
+  <si>
+    <t>keySum</t>
+  </si>
+  <si>
+    <t>车辆行驶证是否已经发出</t>
+  </si>
+  <si>
+    <t>isSend</t>
+  </si>
+  <si>
+    <t>行驶证照片</t>
+  </si>
+  <si>
+    <t>xszFile</t>
+  </si>
+  <si>
+    <t>车辆照片</t>
+  </si>
+  <si>
+    <t>carFile</t>
+  </si>
+  <si>
+    <t>存在多张照片存入</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>remark</t>
+  </si>
+  <si>
+    <t>保险记录表
+insureData</t>
+  </si>
+  <si>
+    <t>被保养车辆编号</t>
+  </si>
+  <si>
+    <t>保单号</t>
+  </si>
+  <si>
+    <t>insureNumber</t>
+  </si>
+  <si>
+    <t>保险起保时间</t>
+  </si>
+  <si>
+    <t>insureStartDate</t>
+  </si>
+  <si>
+    <t>保险停保时间</t>
+  </si>
+  <si>
+    <t>insureEndDate</t>
+  </si>
+  <si>
+    <t>在保/脱保/续保</t>
+  </si>
+  <si>
+    <t>当前时间与停保时间判断</t>
+  </si>
+  <si>
+    <t>保险费用</t>
+  </si>
+  <si>
+    <t>insureCost</t>
+  </si>
+  <si>
+    <t>保险文件或者图片</t>
+  </si>
+  <si>
+    <t>insureFile</t>
+  </si>
+  <si>
+    <t>保险类型</t>
+  </si>
+  <si>
+    <t>insureClass</t>
+  </si>
+  <si>
+    <t>强险/商业险</t>
+  </si>
+  <si>
+    <t>修改人</t>
+  </si>
+  <si>
+    <t>uid</t>
+  </si>
+  <si>
+    <t>维修编号</t>
+  </si>
+  <si>
+    <t>维修车辆编号</t>
+  </si>
+  <si>
+    <t>维修开始时间</t>
+  </si>
+  <si>
+    <t>repairStartDate</t>
+  </si>
+  <si>
+    <t>维修结束时间</t>
+  </si>
+  <si>
+    <t>repairEndDate</t>
+  </si>
+  <si>
+    <t>提车时间</t>
+  </si>
+  <si>
+    <t>pickUpCarDate</t>
+  </si>
+  <si>
+    <t>进场方式</t>
+  </si>
+  <si>
+    <t>enterFactoryDate</t>
+  </si>
+  <si>
+    <t>拖车/自驾</t>
+  </si>
+  <si>
+    <t>送修人用户ID</t>
+  </si>
+  <si>
+    <t>giveCarID</t>
+  </si>
+  <si>
+    <t>员工ID</t>
+  </si>
+  <si>
+    <t>司机报备内容</t>
+  </si>
+  <si>
+    <t>reportContent</t>
+  </si>
+  <si>
+    <t>检测结果类型</t>
+  </si>
+  <si>
+    <t>checkResultClass</t>
+  </si>
+  <si>
+    <t>司机/公司</t>
+  </si>
+  <si>
+    <t>检测内容</t>
+  </si>
+  <si>
+    <t>checkContent</t>
+  </si>
+  <si>
+    <t>维修内容</t>
+  </si>
+  <si>
+    <t>repairContent</t>
+  </si>
+  <si>
+    <t>材料费</t>
+  </si>
+  <si>
+    <t>materialCost</t>
+  </si>
+  <si>
+    <t>人工费</t>
+  </si>
+  <si>
+    <t>peopleCost</t>
+  </si>
+  <si>
+    <t>维修文件/照片</t>
+  </si>
+  <si>
+    <t>repairFile</t>
+  </si>
+  <si>
+    <t>其他费用</t>
+  </si>
+  <si>
+    <t>otherCost</t>
+  </si>
+  <si>
+    <t>总计费用</t>
+  </si>
+  <si>
+    <t>totalCost</t>
+  </si>
+  <si>
+    <t>预计出厂时间</t>
+  </si>
+  <si>
+    <t>leaveFactoryDate</t>
+  </si>
+  <si>
+    <t>事故记录
+accidentData</t>
+  </si>
+  <si>
+    <t>事故编号</t>
+  </si>
+  <si>
+    <t>accidentID</t>
+  </si>
+  <si>
+    <t>事故车辆编号</t>
+  </si>
+  <si>
+    <t>事故负责人ID</t>
+  </si>
+  <si>
+    <t>accidentManagerID</t>
+  </si>
+  <si>
+    <t>事故时间</t>
+  </si>
+  <si>
+    <t>accidentDate</t>
+  </si>
+  <si>
+    <t>事故地点</t>
+  </si>
+  <si>
+    <t>accidentAddress</t>
+  </si>
+  <si>
+    <t>处理时间</t>
+  </si>
+  <si>
+    <t>dealDate</t>
+  </si>
+  <si>
+    <t>事故原因</t>
+  </si>
+  <si>
+    <t>accidentReason</t>
+  </si>
+  <si>
+    <t>现场文件/照片</t>
+  </si>
+  <si>
+    <t>spotFile</t>
+  </si>
+  <si>
+    <t>保险编号</t>
+  </si>
+  <si>
+    <t>保养记录
+healthData</t>
+  </si>
+  <si>
+    <t>保养编号</t>
+  </si>
+  <si>
+    <t>healthID</t>
+  </si>
+  <si>
+    <t>司机编号</t>
+  </si>
+  <si>
+    <t>userID</t>
+  </si>
+  <si>
+    <t>用户ID</t>
+  </si>
+  <si>
+    <t>里程数照片</t>
+  </si>
+  <si>
+    <t>mileageFile</t>
+  </si>
+  <si>
+    <t>保养内容</t>
+  </si>
+  <si>
+    <t>healthContent</t>
+  </si>
+  <si>
+    <t>付款方</t>
+  </si>
+  <si>
+    <t>payer</t>
+  </si>
+  <si>
+    <t>上游支付/公司自费</t>
+  </si>
+  <si>
+    <t>保养费用</t>
+  </si>
+  <si>
+    <t>healthCost</t>
+  </si>
+  <si>
+    <t>上次保养公里数</t>
+  </si>
+  <si>
+    <t>lastTimeHealthNumber</t>
+  </si>
+  <si>
+    <t>保养里程数</t>
+  </si>
+  <si>
+    <t>healthNumber</t>
+  </si>
+  <si>
+    <t>保养时间</t>
+  </si>
+  <si>
+    <t>healthDate</t>
+  </si>
+  <si>
+    <t>下次保养公里数</t>
+  </si>
+  <si>
+    <t>nextTimeKeep</t>
+  </si>
+  <si>
+    <t>违章记录
+breakRuleData</t>
+  </si>
+  <si>
+    <t>违章编号</t>
+  </si>
+  <si>
+    <t>breakRuleID</t>
+  </si>
+  <si>
+    <t>违章车辆编号</t>
+  </si>
+  <si>
+    <t>违章内容(图片)</t>
+  </si>
+  <si>
+    <t>breakRuleContent</t>
+  </si>
+  <si>
+    <t>扣分数</t>
+  </si>
+  <si>
+    <t>reduceGrade</t>
+  </si>
+  <si>
+    <t>罚款费用</t>
+  </si>
+  <si>
+    <t>fineCost</t>
+  </si>
+  <si>
+    <t>处理方式</t>
+  </si>
+  <si>
+    <t>dealClass</t>
+  </si>
+  <si>
+    <t>公司处理/驾驶人处理</t>
+  </si>
+  <si>
+    <t>违章处理截图</t>
+  </si>
+  <si>
+    <t>breakPicture</t>
+  </si>
+  <si>
+    <t>经办人ID</t>
+  </si>
+  <si>
+    <t>dealID</t>
+  </si>
+  <si>
+    <t>经办时间</t>
+  </si>
+  <si>
+    <t>reamrk</t>
+  </si>
+  <si>
+    <t>人员基本信息
+userData</t>
+  </si>
+  <si>
+    <t>编号</t>
+  </si>
+  <si>
+    <t>姓名</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>性别</t>
+  </si>
+  <si>
+    <t>sex</t>
+  </si>
+  <si>
+    <t>身份证号码</t>
+  </si>
+  <si>
+    <t>idsNumber</t>
+  </si>
+  <si>
+    <t>电话</t>
+  </si>
+  <si>
+    <t>tel</t>
+  </si>
+  <si>
+    <t>家庭地址</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>人员类型</t>
+  </si>
+  <si>
+    <t>userType</t>
+  </si>
+  <si>
+    <t>员工/司机</t>
+  </si>
+  <si>
+    <t>职位</t>
+  </si>
+  <si>
+    <t>job</t>
+  </si>
+  <si>
+    <t>有无驾照</t>
+  </si>
+  <si>
+    <t>isDrive</t>
+  </si>
+  <si>
+    <t>驾驶证类型</t>
+  </si>
+  <si>
+    <t>driveType</t>
+  </si>
+  <si>
+    <t>是否为管理员</t>
+  </si>
+  <si>
+    <t>isManage</t>
+  </si>
+  <si>
+    <t>是/否</t>
+  </si>
+  <si>
+    <t>紧急联系人姓名</t>
+  </si>
+  <si>
+    <t>urgentName</t>
+  </si>
+  <si>
+    <t>紧急联系人关系</t>
+  </si>
+  <si>
+    <t>urgentRelation</t>
+  </si>
+  <si>
+    <t>紧急联系人电话</t>
+  </si>
+  <si>
+    <t>urgentTel</t>
+  </si>
+  <si>
+    <t>身份证正面照片</t>
+  </si>
+  <si>
+    <t>idsFirstFile</t>
+  </si>
+  <si>
+    <t>身份证背面照片</t>
+  </si>
+  <si>
+    <t>idsSecondFile</t>
+  </si>
+  <si>
+    <t>驾驶证照片</t>
+  </si>
+  <si>
+    <t>drvieFirstFile</t>
+  </si>
+  <si>
+    <t>驾驶证副本照片</t>
+  </si>
+  <si>
+    <t>drvieSecondFile</t>
+  </si>
+  <si>
+    <t>最后一次登录时间</t>
+  </si>
+  <si>
+    <t>lastLoginTime</t>
+  </si>
+  <si>
+    <t>最后一次修改时间</t>
+  </si>
+  <si>
+    <t>lastUpdateTime</t>
+  </si>
+  <si>
+    <t>是否为黑名单</t>
+  </si>
+  <si>
+    <t>isBlackList</t>
+  </si>
+  <si>
+    <t>租赁记录
+hireData</t>
+  </si>
+  <si>
+    <t>租赁编号</t>
+  </si>
+  <si>
+    <t>hireID</t>
+  </si>
+  <si>
+    <t>租赁司机编号</t>
+  </si>
+  <si>
+    <t>租赁汽车编号</t>
+  </si>
+  <si>
+    <t>当前保险编号</t>
+  </si>
+  <si>
+    <t>租赁模式</t>
+  </si>
+  <si>
+    <t>hireType</t>
+  </si>
+  <si>
+    <t>月租/周租</t>
+  </si>
+  <si>
+    <t>租赁时间</t>
+  </si>
+  <si>
+    <t>hireStartDate</t>
+  </si>
+  <si>
+    <t>还车时间</t>
+  </si>
+  <si>
+    <t>hireEndDate</t>
+  </si>
+  <si>
+    <t>租期</t>
+  </si>
+  <si>
+    <t>hireLongTime</t>
+  </si>
+  <si>
+    <t>月为单位</t>
+  </si>
+  <si>
+    <t>租赁里程数</t>
+  </si>
+  <si>
+    <t>hireStartNumber</t>
+  </si>
+  <si>
+    <t>还车里程数</t>
+  </si>
+  <si>
+    <t>hireEndNumber</t>
+  </si>
+  <si>
+    <t>租赁状态</t>
+  </si>
+  <si>
+    <t>hireStatus</t>
+  </si>
+  <si>
+    <t>租赁中/租赁完成</t>
+  </si>
+  <si>
+    <t>出险次数</t>
+  </si>
+  <si>
+    <t>accidentTime</t>
+  </si>
+  <si>
+    <t>事故次数</t>
+  </si>
+  <si>
+    <t>保养次数</t>
+  </si>
+  <si>
+    <t>healthTime</t>
+  </si>
+  <si>
+    <t>经办人</t>
+  </si>
+  <si>
+    <t>agentID</t>
+  </si>
+  <si>
+    <t>agentTime</t>
+  </si>
+  <si>
+    <t>utime</t>
+  </si>
+  <si>
+    <t>车辆字典
+carClassData</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>上游记录
+upDataList</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>只能记录最后一次操作系统时间</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否需要下拉</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否需要下拉,车辆名称需要唯一</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>保险字典
+insureClassData</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>车辆基本信息
 carData</t>
-  </si>
-  <si>
-    <t>车辆编号</t>
-  </si>
-  <si>
-    <t>carID</t>
-  </si>
-  <si>
-    <t>车辆字典ID</t>
-  </si>
-  <si>
-    <t>车牌号</t>
-  </si>
-  <si>
-    <t>carNumber</t>
-  </si>
-  <si>
-    <t>发动机号</t>
-  </si>
-  <si>
-    <t>engineNumber</t>
-  </si>
-  <si>
-    <t>车架号</t>
-  </si>
-  <si>
-    <t>carFrameNumber</t>
-  </si>
-  <si>
-    <t>insureID</t>
-  </si>
-  <si>
-    <t>当前车辆状态</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>车辆关联保险记录表</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>上游ID</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>upperID</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>insureName</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>保险公司名称</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否需要保险名称 要加</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>保险字典ID</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否需要下拉 都不需要</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>shoeNum</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>carStatus</t>
-  </si>
-  <si>
-    <t>在库/出库</t>
-  </si>
-  <si>
-    <t>轮胎编码</t>
-  </si>
-  <si>
-    <t>shoeNum</t>
-  </si>
-  <si>
-    <t>轮胎如果替换，是否会换到一样规格的轮胎</t>
-  </si>
-  <si>
-    <t>轮胎规格</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>shoeSpecs</t>
-  </si>
-  <si>
-    <t>动力类型</t>
-  </si>
-  <si>
-    <t>powerType</t>
-  </si>
-  <si>
-    <t>燃油/纯电/油电混合</t>
-  </si>
-  <si>
-    <t>年检日期</t>
-  </si>
-  <si>
-    <t>yearCheckDate</t>
-  </si>
-  <si>
-    <t>车钥匙数量</t>
-  </si>
-  <si>
-    <t>keySum</t>
-  </si>
-  <si>
-    <t>车辆行驶证是否已经发出</t>
-  </si>
-  <si>
-    <t>isSend</t>
-  </si>
-  <si>
-    <t>行驶证照片</t>
-  </si>
-  <si>
-    <t>xszFile</t>
-  </si>
-  <si>
-    <t>车辆照片</t>
-  </si>
-  <si>
-    <t>carFile</t>
-  </si>
-  <si>
-    <t>存在多张照片存入</t>
-  </si>
-  <si>
-    <t>备注</t>
-  </si>
-  <si>
-    <t>remark</t>
-  </si>
-  <si>
-    <t>保险记录表
-insureData</t>
-  </si>
-  <si>
-    <t>被保养车辆编号</t>
-  </si>
-  <si>
-    <t>保险字典ID</t>
-  </si>
-  <si>
-    <t>保单号</t>
-  </si>
-  <si>
-    <t>insureNumber</t>
-  </si>
-  <si>
-    <t>保险起保时间</t>
-  </si>
-  <si>
-    <t>insureStartDate</t>
-  </si>
-  <si>
-    <t>保险停保时间</t>
-  </si>
-  <si>
-    <t>insureEndDate</t>
-  </si>
-  <si>
-    <t>在保/脱保/续保</t>
-  </si>
-  <si>
-    <t>当前时间与停保时间判断</t>
-  </si>
-  <si>
-    <t>保险费用</t>
-  </si>
-  <si>
-    <t>insureCost</t>
-  </si>
-  <si>
-    <t>保险文件或者图片</t>
-  </si>
-  <si>
-    <t>insureFile</t>
-  </si>
-  <si>
-    <t>保险类型</t>
-  </si>
-  <si>
-    <t>insureClass</t>
-  </si>
-  <si>
-    <t>强险/商业险</t>
-  </si>
-  <si>
-    <t>修改人</t>
-  </si>
-  <si>
-    <t>uid</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>维修记录
 repairData
 只能修改空白内容
 不能修改已添加内容</t>
-  </si>
-  <si>
-    <t>维修编号</t>
-  </si>
-  <si>
-    <t>维修车辆编号</t>
-  </si>
-  <si>
-    <t>维修开始时间</t>
-  </si>
-  <si>
-    <t>repairStartDate</t>
-  </si>
-  <si>
-    <t>维修结束时间</t>
-  </si>
-  <si>
-    <t>repairEndDate</t>
-  </si>
-  <si>
-    <t>提车时间</t>
-  </si>
-  <si>
-    <t>pickUpCarDate</t>
-  </si>
-  <si>
-    <t>进场方式</t>
-  </si>
-  <si>
-    <t>enterFactoryDate</t>
-  </si>
-  <si>
-    <t>拖车/自驾</t>
-  </si>
-  <si>
-    <t>送修人用户ID</t>
-  </si>
-  <si>
-    <t>giveCarID</t>
-  </si>
-  <si>
-    <t>员工ID</t>
-  </si>
-  <si>
-    <t>司机报备内容</t>
-  </si>
-  <si>
-    <t>reportContent</t>
-  </si>
-  <si>
-    <t>检测结果类型</t>
-  </si>
-  <si>
-    <t>checkResultClass</t>
-  </si>
-  <si>
-    <t>司机/公司</t>
-  </si>
-  <si>
-    <t>检测内容</t>
-  </si>
-  <si>
-    <t>checkContent</t>
-  </si>
-  <si>
-    <t>维修内容</t>
-  </si>
-  <si>
-    <t>repairContent</t>
-  </si>
-  <si>
-    <t>材料费</t>
-  </si>
-  <si>
-    <t>materialCost</t>
-  </si>
-  <si>
-    <t>人工费</t>
-  </si>
-  <si>
-    <t>peopleCost</t>
-  </si>
-  <si>
-    <t>维修文件/照片</t>
-  </si>
-  <si>
-    <t>repairFile</t>
-  </si>
-  <si>
-    <t>其他费用</t>
-  </si>
-  <si>
-    <t>otherCost</t>
-  </si>
-  <si>
-    <t>总计费用</t>
-  </si>
-  <si>
-    <t>totalCost</t>
-  </si>
-  <si>
-    <t>预计出厂时间</t>
-  </si>
-  <si>
-    <t>leaveFactoryDate</t>
-  </si>
-  <si>
-    <t>事故记录
-accidentData</t>
-  </si>
-  <si>
-    <t>事故编号</t>
-  </si>
-  <si>
-    <t>accidentID</t>
-  </si>
-  <si>
-    <t>事故车辆编号</t>
-  </si>
-  <si>
-    <t>事故负责人ID</t>
-  </si>
-  <si>
-    <t>accidentManagerID</t>
-  </si>
-  <si>
-    <t>事故时间</t>
-  </si>
-  <si>
-    <t>accidentDate</t>
-  </si>
-  <si>
-    <t>事故地点</t>
-  </si>
-  <si>
-    <t>accidentAddress</t>
-  </si>
-  <si>
-    <t>处理时间</t>
-  </si>
-  <si>
-    <t>dealDate</t>
-  </si>
-  <si>
-    <t>事故原因</t>
-  </si>
-  <si>
-    <t>accidentReason</t>
-  </si>
-  <si>
-    <t>现场文件/照片</t>
-  </si>
-  <si>
-    <t>spotFile</t>
-  </si>
-  <si>
-    <t>保险编号</t>
-  </si>
-  <si>
-    <t>保养记录
-healthData</t>
-  </si>
-  <si>
-    <t>保养编号</t>
-  </si>
-  <si>
-    <t>healthID</t>
-  </si>
-  <si>
-    <t>司机编号</t>
-  </si>
-  <si>
-    <t>userID</t>
-  </si>
-  <si>
-    <t>用户ID</t>
-  </si>
-  <si>
-    <t>里程数照片</t>
-  </si>
-  <si>
-    <t>mileageFile</t>
-  </si>
-  <si>
-    <t>保养内容</t>
-  </si>
-  <si>
-    <t>healthContent</t>
-  </si>
-  <si>
-    <t>付款方</t>
-  </si>
-  <si>
-    <t>payer</t>
-  </si>
-  <si>
-    <t>上游支付/公司自费</t>
-  </si>
-  <si>
-    <t>保养费用</t>
-  </si>
-  <si>
-    <t>healthCost</t>
-  </si>
-  <si>
-    <t>上次保养公里数</t>
-  </si>
-  <si>
-    <t>lastTimeHealthNumber</t>
-  </si>
-  <si>
-    <t>保养里程数</t>
-  </si>
-  <si>
-    <t>healthNumber</t>
-  </si>
-  <si>
-    <t>保养时间</t>
-  </si>
-  <si>
-    <t>healthDate</t>
-  </si>
-  <si>
-    <t>下次保养公里数</t>
-  </si>
-  <si>
-    <t>nextTimeKeep</t>
-  </si>
-  <si>
-    <t>违章记录
-breakRuleData</t>
-  </si>
-  <si>
-    <t>违章编号</t>
-  </si>
-  <si>
-    <t>breakRuleID</t>
-  </si>
-  <si>
-    <t>违章车辆编号</t>
-  </si>
-  <si>
-    <t>违章内容(图片)</t>
-  </si>
-  <si>
-    <t>breakRuleContent</t>
-  </si>
-  <si>
-    <t>扣分数</t>
-  </si>
-  <si>
-    <t>reduceGrade</t>
-  </si>
-  <si>
-    <t>罚款费用</t>
-  </si>
-  <si>
-    <t>fineCost</t>
-  </si>
-  <si>
-    <t>处理方式</t>
-  </si>
-  <si>
-    <t>dealClass</t>
-  </si>
-  <si>
-    <t>公司处理/驾驶人处理</t>
-  </si>
-  <si>
-    <t>违章处理截图</t>
-  </si>
-  <si>
-    <t>breakPicture</t>
-  </si>
-  <si>
-    <t>经办人ID</t>
-  </si>
-  <si>
-    <t>dealID</t>
-  </si>
-  <si>
-    <t>经办时间</t>
-  </si>
-  <si>
-    <t>reamrk</t>
-  </si>
-  <si>
-    <t>人员基本信息
-userData</t>
-  </si>
-  <si>
-    <t>编号</t>
-  </si>
-  <si>
-    <t>姓名</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>性别</t>
-  </si>
-  <si>
-    <t>sex</t>
-  </si>
-  <si>
-    <t>身份证号码</t>
-  </si>
-  <si>
-    <t>idsNumber</t>
-  </si>
-  <si>
-    <t>电话</t>
-  </si>
-  <si>
-    <t>tel</t>
-  </si>
-  <si>
-    <t>家庭地址</t>
-  </si>
-  <si>
-    <t>address</t>
-  </si>
-  <si>
-    <t>人员类型</t>
-  </si>
-  <si>
-    <t>userType</t>
-  </si>
-  <si>
-    <t>员工/司机</t>
-  </si>
-  <si>
-    <t>职位</t>
-  </si>
-  <si>
-    <t>job</t>
-  </si>
-  <si>
-    <t>有无驾照</t>
-  </si>
-  <si>
-    <t>isDrive</t>
-  </si>
-  <si>
-    <t>驾驶证类型</t>
-  </si>
-  <si>
-    <t>driveType</t>
-  </si>
-  <si>
-    <t>是否为管理员</t>
-  </si>
-  <si>
-    <t>isManage</t>
-  </si>
-  <si>
-    <t>是/否</t>
-  </si>
-  <si>
-    <t>紧急联系人姓名</t>
-  </si>
-  <si>
-    <t>urgentName</t>
-  </si>
-  <si>
-    <t>紧急联系人关系</t>
-  </si>
-  <si>
-    <t>urgentRelation</t>
-  </si>
-  <si>
-    <t>紧急联系人电话</t>
-  </si>
-  <si>
-    <t>urgentTel</t>
-  </si>
-  <si>
-    <t>身份证正面照片</t>
-  </si>
-  <si>
-    <t>idsFirstFile</t>
-  </si>
-  <si>
-    <t>身份证背面照片</t>
-  </si>
-  <si>
-    <t>idsSecondFile</t>
-  </si>
-  <si>
-    <t>驾驶证照片</t>
-  </si>
-  <si>
-    <t>drvieFirstFile</t>
-  </si>
-  <si>
-    <t>驾驶证副本照片</t>
-  </si>
-  <si>
-    <t>drvieSecondFile</t>
-  </si>
-  <si>
-    <t>最后一次登录时间</t>
-  </si>
-  <si>
-    <t>lastLoginTime</t>
-  </si>
-  <si>
-    <t>最后一次修改时间</t>
-  </si>
-  <si>
-    <t>lastUpdateTime</t>
-  </si>
-  <si>
-    <t>是否为黑名单</t>
-  </si>
-  <si>
-    <t>isBlackList</t>
-  </si>
-  <si>
-    <t>租赁记录
-hireData</t>
-  </si>
-  <si>
-    <t>租赁编号</t>
-  </si>
-  <si>
-    <t>hireID</t>
-  </si>
-  <si>
-    <t>租赁司机编号</t>
-  </si>
-  <si>
-    <t>租赁汽车编号</t>
-  </si>
-  <si>
-    <t>当前保险编号</t>
-  </si>
-  <si>
-    <t>租赁模式</t>
-  </si>
-  <si>
-    <t>hireType</t>
-  </si>
-  <si>
-    <t>月租/周租</t>
-  </si>
-  <si>
-    <t>租赁时间</t>
-  </si>
-  <si>
-    <t>hireStartDate</t>
-  </si>
-  <si>
-    <t>还车时间</t>
-  </si>
-  <si>
-    <t>hireEndDate</t>
-  </si>
-  <si>
-    <t>租期</t>
-  </si>
-  <si>
-    <t>hireLongTime</t>
-  </si>
-  <si>
-    <t>月为单位</t>
-  </si>
-  <si>
-    <t>租赁里程数</t>
-  </si>
-  <si>
-    <t>hireStartNumber</t>
-  </si>
-  <si>
-    <t>还车里程数</t>
-  </si>
-  <si>
-    <t>hireEndNumber</t>
-  </si>
-  <si>
-    <t>租赁状态</t>
-  </si>
-  <si>
-    <t>hireStatus</t>
-  </si>
-  <si>
-    <t>租赁中/租赁完成</t>
-  </si>
-  <si>
-    <t>出险次数</t>
-  </si>
-  <si>
-    <t>accidentTime</t>
-  </si>
-  <si>
-    <t>事故次数</t>
-  </si>
-  <si>
-    <t>保养次数</t>
-  </si>
-  <si>
-    <t>healthTime</t>
-  </si>
-  <si>
-    <t>经办人</t>
-  </si>
-  <si>
-    <t>agentID</t>
-  </si>
-  <si>
-    <t>agentTime</t>
-  </si>
-  <si>
-    <t>utime</t>
-  </si>
-  <si>
-    <t>车辆字典
-carClassData</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>上游记录
-upDataList</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>保险字典
-insureClassData</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>只能记录最后一次操作系统时间</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否需要保险名称</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否需要下拉</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -939,7 +971,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -996,6 +1028,22 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1031,7 +1079,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1083,17 +1131,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1372,8 +1429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I218"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E85" sqref="A72:E85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1383,14 +1440,15 @@
     <col min="3" max="3" width="19.625" customWidth="1"/>
     <col min="4" max="4" width="18.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="25.25" customWidth="1"/>
+    <col min="6" max="6" width="23.625" customWidth="1"/>
     <col min="8" max="8" width="14" customWidth="1"/>
     <col min="9" max="9" width="25.25" customWidth="1"/>
     <col min="10" max="10" width="11.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" s="15" t="s">
-        <v>292</v>
+      <c r="A1" s="17" t="s">
+        <v>284</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1400,16 +1458,16 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="17"/>
+      <c r="A2" s="18"/>
       <c r="B2" s="2" t="s">
-        <v>2</v>
+        <v>292</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>3</v>
+        <v>293</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="17"/>
+      <c r="A3" s="18"/>
       <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
@@ -1418,7 +1476,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="17"/>
+      <c r="A4" s="18"/>
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
@@ -1426,11 +1484,11 @@
         <v>7</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="17"/>
+      <c r="A5" s="18"/>
       <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
@@ -1438,11 +1496,11 @@
         <v>9</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="17"/>
+      <c r="A6" s="18"/>
       <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
@@ -1450,11 +1508,11 @@
         <v>11</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" s="17"/>
+      <c r="A7" s="18"/>
       <c r="B7" s="2" t="s">
         <v>12</v>
       </c>
@@ -1462,11 +1520,11 @@
         <v>13</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8" s="17"/>
+      <c r="A8" s="18"/>
       <c r="B8" s="2" t="s">
         <v>14</v>
       </c>
@@ -1474,11 +1532,11 @@
         <v>15</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" s="17"/>
+      <c r="A9" s="18"/>
       <c r="B9" s="2" t="s">
         <v>16</v>
       </c>
@@ -1486,11 +1544,11 @@
         <v>17</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10" s="17"/>
+      <c r="A10" s="18"/>
       <c r="B10" s="2" t="s">
         <v>18</v>
       </c>
@@ -1502,7 +1560,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11" s="17"/>
+      <c r="A11" s="18"/>
       <c r="B11" s="2" t="s">
         <v>21</v>
       </c>
@@ -1511,7 +1569,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A12" s="17"/>
+      <c r="A12" s="18"/>
       <c r="B12" s="2" t="s">
         <v>23</v>
       </c>
@@ -1520,7 +1578,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A13" s="17"/>
+      <c r="A13" s="18"/>
       <c r="B13" s="2" t="s">
         <v>25</v>
       </c>
@@ -1539,8 +1597,8 @@
       <c r="C15" s="4"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A16" s="18" t="s">
-        <v>293</v>
+      <c r="A16" s="17" t="s">
+        <v>285</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>2</v>
@@ -1550,7 +1608,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A17" s="19"/>
+      <c r="A17" s="18"/>
       <c r="B17" s="2" t="s">
         <v>27</v>
       </c>
@@ -1559,7 +1617,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A18" s="19"/>
+      <c r="A18" s="18"/>
       <c r="B18" s="2" t="s">
         <v>29</v>
       </c>
@@ -1568,7 +1626,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A19" s="19"/>
+      <c r="A19" s="18"/>
       <c r="B19" s="2" t="s">
         <v>31</v>
       </c>
@@ -1577,7 +1635,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A20" s="19"/>
+      <c r="A20" s="18"/>
       <c r="B20" s="2" t="s">
         <v>33</v>
       </c>
@@ -1586,7 +1644,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A21" s="19"/>
+      <c r="A21" s="18"/>
       <c r="B21" s="2" t="s">
         <v>35</v>
       </c>
@@ -1595,7 +1653,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A22" s="19"/>
+      <c r="A22" s="18"/>
       <c r="B22" s="2" t="s">
         <v>37</v>
       </c>
@@ -1604,7 +1662,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A23" s="19"/>
+      <c r="A23" s="18"/>
       <c r="B23" s="2" t="s">
         <v>39</v>
       </c>
@@ -1613,7 +1671,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A24" s="19"/>
+      <c r="A24" s="18"/>
       <c r="B24" s="2" t="s">
         <v>41</v>
       </c>
@@ -1622,7 +1680,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A25" s="19"/>
+      <c r="A25" s="18"/>
       <c r="B25" s="2" t="s">
         <v>43</v>
       </c>
@@ -1631,7 +1689,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A26" s="19"/>
+      <c r="A26" s="18"/>
       <c r="B26" s="2" t="s">
         <v>45</v>
       </c>
@@ -1640,7 +1698,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A27" s="19"/>
+      <c r="A27" s="18"/>
       <c r="B27" s="2" t="s">
         <v>47</v>
       </c>
@@ -1649,7 +1707,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A28" s="19"/>
+      <c r="A28" s="18"/>
       <c r="B28" s="2" t="s">
         <v>21</v>
       </c>
@@ -1658,7 +1716,7 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A29" s="19"/>
+      <c r="A29" s="18"/>
       <c r="B29" s="2" t="s">
         <v>23</v>
       </c>
@@ -1667,7 +1725,7 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A30" s="19"/>
+      <c r="A30" s="18"/>
       <c r="B30" s="2" t="s">
         <v>25</v>
       </c>
@@ -1684,8 +1742,8 @@
       <c r="C32" s="4"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A33" s="18" t="s">
-        <v>294</v>
+      <c r="A33" s="17" t="s">
+        <v>289</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>49</v>
@@ -1695,19 +1753,19 @@
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A34" s="19"/>
+      <c r="A34" s="18"/>
       <c r="B34" s="2" t="s">
-        <v>51</v>
+        <v>295</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>52</v>
+        <v>294</v>
       </c>
       <c r="E34" s="14" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A35" s="19"/>
+      <c r="A35" s="18"/>
       <c r="B35" s="2" t="s">
         <v>21</v>
       </c>
@@ -1716,7 +1774,7 @@
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A36" s="19"/>
+      <c r="A36" s="18"/>
       <c r="B36" s="2" t="s">
         <v>23</v>
       </c>
@@ -1725,7 +1783,7 @@
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A37" s="19"/>
+      <c r="A37" s="18"/>
       <c r="B37" s="2" t="s">
         <v>25</v>
       </c>
@@ -1745,62 +1803,62 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A41" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C41" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A42" s="20"/>
       <c r="B42" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A43" s="20"/>
       <c r="B43" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A44" s="20"/>
       <c r="B44" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I44" s="9"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A45" s="20"/>
       <c r="B45" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A46" s="20"/>
       <c r="B46" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.15">
@@ -1837,20 +1895,20 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A51" s="15" t="s">
-        <v>66</v>
+        <v>290</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I51" s="9"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A52" s="16"/>
       <c r="B52" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>1</v>
@@ -1860,29 +1918,29 @@
     <row r="53" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A53" s="16"/>
       <c r="B53" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A54" s="16"/>
       <c r="B54" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="I54" s="9"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A55" s="16"/>
       <c r="B55" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I55" s="9"/>
     </row>
@@ -1892,33 +1950,33 @@
         <v>49</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I56" s="9"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A57" s="16"/>
       <c r="B57" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
+      </c>
+      <c r="C57" s="22" t="s">
+        <v>301</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I57" s="9"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A58" s="16"/>
       <c r="B58" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>81</v>
+        <v>76</v>
+      </c>
+      <c r="C58" s="22" t="s">
+        <v>300</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="G58" s="8"/>
       <c r="H58" s="8"/>
@@ -1927,85 +1985,85 @@
     <row r="59" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A59" s="16"/>
       <c r="B59" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>84</v>
+        <v>78</v>
+      </c>
+      <c r="C59" s="22" t="s">
+        <v>302</v>
       </c>
       <c r="I59" s="9"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A60" s="16"/>
       <c r="B60" s="3" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="I60" s="9"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A61" s="16"/>
       <c r="B61" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="I61" s="9"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A62" s="16"/>
       <c r="B62" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="I62" s="9"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A63" s="16"/>
       <c r="B63" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="I63" s="9"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A64" s="16"/>
       <c r="B64" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="I64" s="9"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A65" s="16"/>
       <c r="B65" s="3" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A66" s="16"/>
       <c r="B66" s="3" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.15">
@@ -2037,28 +2095,31 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A72" s="15" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>49</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A73" s="16"/>
-      <c r="B73" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>68</v>
+      <c r="B73" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="C73" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="D73" s="21" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A74" s="16"/>
       <c r="B74" s="3" t="s">
-        <v>103</v>
+        <v>297</v>
       </c>
       <c r="C74" s="3" t="s">
         <v>50</v>
@@ -2067,73 +2128,73 @@
     <row r="75" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A75" s="16"/>
       <c r="B75" s="3" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A76" s="16"/>
       <c r="B76" s="3" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A77" s="16"/>
       <c r="B77" s="3" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="E77" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A78" s="16"/>
       <c r="B78" s="3" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A79" s="16"/>
       <c r="B79" s="3" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A80" s="16"/>
       <c r="B80" s="3" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A81" s="16"/>
       <c r="B81" s="3" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.15">
@@ -2157,10 +2218,10 @@
     <row r="84" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A84" s="16"/>
       <c r="B84" s="2" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.15">
@@ -2172,6 +2233,11 @@
         <v>26</v>
       </c>
     </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A88" t="s">
+        <v>291</v>
+      </c>
+    </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B90" s="9"/>
     </row>
@@ -2179,185 +2245,185 @@
       <c r="B91" s="9"/>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A92" s="15" t="s">
-        <v>121</v>
+      <c r="A92" s="23" t="s">
+        <v>303</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A93" s="15"/>
       <c r="B93" s="3" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A94" s="15"/>
       <c r="B94" s="3" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A95" s="15"/>
       <c r="B95" s="3" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A96" s="15"/>
       <c r="B96" s="3" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A97" s="15"/>
       <c r="B97" s="3" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A98" s="15"/>
       <c r="B98" s="3" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A99" s="15"/>
       <c r="B99" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A100" s="15"/>
       <c r="B100" s="2" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A101" s="15"/>
       <c r="B101" s="2" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A102" s="15"/>
       <c r="B102" s="2" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A103" s="15"/>
       <c r="B103" s="3" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A104" s="15"/>
       <c r="B104" s="3" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A105" s="15"/>
       <c r="B105" s="3" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A106" s="15"/>
       <c r="B106" s="3" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A107" s="15"/>
       <c r="B107" s="3" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A108" s="15"/>
       <c r="B108" s="3" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A109" s="15"/>
       <c r="B109" s="3" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A110" s="15"/>
       <c r="B110" s="2" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.15">
@@ -2381,10 +2447,10 @@
     <row r="113" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A113" s="15"/>
       <c r="B113" s="2" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.15">
@@ -2398,106 +2464,106 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A117" s="15" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A118" s="16"/>
       <c r="B118" s="3" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A119" s="16"/>
       <c r="B119" s="3" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A120" s="16"/>
       <c r="B120" s="3" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A121" s="16"/>
       <c r="B121" s="3" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A122" s="16"/>
       <c r="B122" s="3" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A123" s="16"/>
       <c r="B123" s="3" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A124" s="16"/>
       <c r="B124" s="3" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A125" s="16"/>
       <c r="B125" s="3" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A126" s="16"/>
       <c r="B126" s="3" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A127" s="16"/>
       <c r="B127" s="3" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.15">
@@ -2521,10 +2587,10 @@
     <row r="130" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A130" s="16"/>
       <c r="B130" s="2" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.15">
@@ -2538,118 +2604,118 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A136" s="15" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A137" s="16"/>
       <c r="B137" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A138" s="16"/>
       <c r="B138" s="3" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="D138" s="4" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A139" s="16"/>
       <c r="B139" s="3" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A140" s="16"/>
       <c r="B140" s="3" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A141" s="16"/>
       <c r="B141" s="3" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="D141" s="4" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A142" s="16"/>
       <c r="B142" s="3" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A143" s="16"/>
       <c r="B143" s="3" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A144" s="16"/>
       <c r="B144" s="3" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A145" s="16"/>
       <c r="B145" s="3" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A146" s="16"/>
       <c r="B146" s="3" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A147" s="16"/>
       <c r="B147" s="3" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.15">
@@ -2673,10 +2739,10 @@
     <row r="150" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A150" s="16"/>
       <c r="B150" s="2" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.15">
@@ -2690,109 +2756,109 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A153" s="15" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A154" s="15"/>
       <c r="B154" s="3" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A155" s="15"/>
       <c r="B155" s="3" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A156" s="15"/>
       <c r="B156" s="3" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A157" s="15"/>
       <c r="B157" s="3" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A158" s="15"/>
       <c r="B158" s="3" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A159" s="15"/>
       <c r="B159" s="3" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="D159" s="4" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A160" s="15"/>
       <c r="B160" s="3" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A161" s="15"/>
       <c r="B161" s="3" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="D161" s="4" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A162" s="15"/>
       <c r="B162" s="3" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A163" s="15"/>
       <c r="B163" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.15">
@@ -2823,225 +2889,225 @@
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A169" s="15" t="s">
+      <c r="A169" s="17" t="s">
+        <v>208</v>
+      </c>
+      <c r="B169" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C169" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A170" s="19"/>
+      <c r="B170" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C170" s="3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A171" s="19"/>
+      <c r="B171" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="C171" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A172" s="19"/>
+      <c r="B172" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="C172" s="3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A173" s="19"/>
+      <c r="B173" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="B169" s="3" t="s">
+      <c r="C173" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="C169" s="3" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A170" s="16"/>
-      <c r="B170" s="3" t="s">
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A174" s="19"/>
+      <c r="B174" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="C170" s="3" t="s">
+      <c r="C174" s="3" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A171" s="16"/>
-      <c r="B171" s="3" t="s">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A175" s="19"/>
+      <c r="B175" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="C171" s="3" t="s">
+      <c r="C175" s="3" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A172" s="16"/>
-      <c r="B172" s="3" t="s">
+      <c r="D175" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="C172" s="3" t="s">
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A176" s="19"/>
+      <c r="B176" s="3" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A173" s="16"/>
-      <c r="B173" s="3" t="s">
+      <c r="C176" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="C173" s="3" t="s">
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A177" s="19"/>
+      <c r="B177" s="3" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A174" s="16"/>
-      <c r="B174" s="3" t="s">
+      <c r="C177" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="C174" s="3" t="s">
+    </row>
+    <row r="178" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A178" s="19"/>
+      <c r="B178" s="3" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A175" s="16"/>
-      <c r="B175" s="3" t="s">
+      <c r="C178" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="C175" s="3" t="s">
+      <c r="E178" s="12"/>
+    </row>
+    <row r="179" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A179" s="19"/>
+      <c r="B179" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="D175" s="4" t="s">
+      <c r="C179" s="3" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A176" s="16"/>
-      <c r="B176" s="3" t="s">
+      <c r="D179" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="C176" s="3" t="s">
+      <c r="E179" s="12"/>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A180" s="19"/>
+      <c r="B180" s="3" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A177" s="16"/>
-      <c r="B177" s="3" t="s">
+      <c r="C180" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="C177" s="3" t="s">
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A181" s="19"/>
+      <c r="B181" s="3" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="178" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A178" s="16"/>
-      <c r="B178" s="3" t="s">
+      <c r="C181" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="C178" s="3" t="s">
+    </row>
+    <row r="182" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A182" s="19"/>
+      <c r="B182" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="E178" s="12"/>
-    </row>
-    <row r="179" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A179" s="16"/>
-      <c r="B179" s="3" t="s">
+      <c r="C182" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="C179" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="D179" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="E179" s="12"/>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A180" s="16"/>
-      <c r="B180" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="C180" s="3" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A181" s="16"/>
-      <c r="B181" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="C181" s="3" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A182" s="16"/>
-      <c r="B182" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="C182" s="3" t="s">
-        <v>245</v>
-      </c>
       <c r="E182" s="12"/>
     </row>
     <row r="183" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A183" s="16"/>
+      <c r="A183" s="19"/>
       <c r="B183" s="3"/>
       <c r="C183" s="11"/>
       <c r="E183" s="12"/>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A184" s="16"/>
+      <c r="A184" s="19"/>
       <c r="B184" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="C184" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A185" s="19"/>
+      <c r="B185" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C185" s="3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A186" s="19"/>
+      <c r="B186" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="C186" s="3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A187" s="19"/>
+      <c r="B187" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="C187" s="3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A188" s="19"/>
+      <c r="B188" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="C184" s="3" t="s">
+      <c r="C188" s="3" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A185" s="16"/>
-      <c r="B185" s="3" t="s">
+      <c r="E188" s="13" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A189" s="19"/>
+      <c r="B189" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="C185" s="3" t="s">
+      <c r="C189" s="3" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A186" s="16"/>
-      <c r="B186" s="3" t="s">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A190" s="19"/>
+      <c r="B190" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="C186" s="3" t="s">
+      <c r="C190" s="3" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A187" s="16"/>
-      <c r="B187" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="C187" s="3" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A188" s="16"/>
-      <c r="B188" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="C188" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="E188" s="13" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A189" s="16"/>
-      <c r="B189" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="C189" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A190" s="16"/>
-      <c r="B190" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="C190" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A191" s="16"/>
+      <c r="A191" s="19"/>
       <c r="B191" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A192" s="16"/>
+      <c r="A192" s="19"/>
       <c r="B192" s="2" t="s">
         <v>21</v>
       </c>
@@ -3050,7 +3116,7 @@
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A193" s="16"/>
+      <c r="A193" s="19"/>
       <c r="B193" s="2" t="s">
         <v>23</v>
       </c>
@@ -3059,7 +3125,7 @@
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A194" s="16"/>
+      <c r="A194" s="19"/>
       <c r="B194" s="2" t="s">
         <v>25</v>
       </c>
@@ -3069,52 +3135,52 @@
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A197" s="15" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A198" s="15"/>
       <c r="B198" s="3" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A199" s="15"/>
       <c r="B199" s="3" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A200" s="15"/>
       <c r="B200" s="3" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A201" s="15"/>
       <c r="B201" s="3" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="C201" s="3" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="D201" s="4" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.15">
@@ -3125,112 +3191,112 @@
     <row r="203" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A203" s="15"/>
       <c r="B203" s="3" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A204" s="15"/>
       <c r="B204" s="3" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A205" s="15"/>
       <c r="B205" s="3" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="C205" s="3" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="D205" s="4" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A206" s="15"/>
       <c r="B206" s="3" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="C206" s="3" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A207" s="15"/>
       <c r="B207" s="3" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="C207" s="3" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A208" s="15"/>
       <c r="B208" s="3" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="C208" s="3" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="D208" s="4" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A209" s="15"/>
       <c r="B209" s="3" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="C209" s="3" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="D209" s="4" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A210" s="15"/>
       <c r="B210" s="3" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="C210" s="3" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A211" s="15"/>
       <c r="B211" s="3" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="C211" s="3" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="D211" s="4" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A212" s="15"/>
       <c r="B212" s="3" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="C212" s="3" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A213" s="15"/>
       <c r="B213" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C213" s="3" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.15">
@@ -3263,19 +3329,19 @@
     <row r="217" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A217" s="15"/>
       <c r="B217" s="3" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="C217" s="3" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A218" s="15"/>
       <c r="B218" s="3" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="C218" s="3" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
     </row>
   </sheetData>

--- a/双意图顺字段表.xlsx
+++ b/双意图顺字段表.xlsx
@@ -356,9 +356,6 @@
     <t>insureClass</t>
   </si>
   <si>
-    <t>强险/商业险</t>
-  </si>
-  <si>
     <t>修改人</t>
   </si>
   <si>
@@ -964,6 +961,10 @@
 repairData
 只能修改空白内容
 不能修改已添加内容</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>强险/商业险</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1079,7 +1080,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1125,10 +1126,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1137,20 +1138,23 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1429,8 +1433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I218"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E85" sqref="A72:E85"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I42" sqref="I42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1448,7 +1452,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="17" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1460,10 +1464,10 @@
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="18"/>
       <c r="B2" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>292</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
@@ -1484,7 +1488,7 @@
         <v>7</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
@@ -1496,7 +1500,7 @@
         <v>9</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
@@ -1508,7 +1512,7 @@
         <v>11</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
@@ -1520,7 +1524,7 @@
         <v>13</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
@@ -1532,7 +1536,7 @@
         <v>15</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
@@ -1544,7 +1548,7 @@
         <v>17</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
@@ -1598,7 +1602,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" s="17" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>2</v>
@@ -1743,7 +1747,7 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A33" s="17" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>49</v>
@@ -1755,13 +1759,13 @@
     <row r="34" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A34" s="18"/>
       <c r="B34" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="E34" s="14" t="s">
         <v>295</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="E34" s="14" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.15">
@@ -1802,7 +1806,7 @@
       <c r="A40" s="5"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A41" s="20" t="s">
+      <c r="A41" s="19" t="s">
         <v>51</v>
       </c>
       <c r="B41" s="2" t="s">
@@ -1813,7 +1817,7 @@
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A42" s="20"/>
+      <c r="A42" s="19"/>
       <c r="B42" s="2" t="s">
         <v>54</v>
       </c>
@@ -1822,7 +1826,7 @@
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A43" s="20"/>
+      <c r="A43" s="19"/>
       <c r="B43" s="2" t="s">
         <v>56</v>
       </c>
@@ -1831,7 +1835,7 @@
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A44" s="20"/>
+      <c r="A44" s="19"/>
       <c r="B44" s="2" t="s">
         <v>58</v>
       </c>
@@ -1841,7 +1845,7 @@
       <c r="I44" s="9"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A45" s="20"/>
+      <c r="A45" s="19"/>
       <c r="B45" s="2" t="s">
         <v>60</v>
       </c>
@@ -1850,7 +1854,7 @@
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A46" s="20"/>
+      <c r="A46" s="19"/>
       <c r="B46" s="2" t="s">
         <v>62</v>
       </c>
@@ -1862,7 +1866,7 @@
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A47" s="20"/>
+      <c r="A47" s="19"/>
       <c r="B47" s="2" t="s">
         <v>21</v>
       </c>
@@ -1871,7 +1875,7 @@
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A48" s="20"/>
+      <c r="A48" s="19"/>
       <c r="B48" s="2" t="s">
         <v>23</v>
       </c>
@@ -1881,7 +1885,7 @@
       <c r="I48" s="9"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A49" s="20"/>
+      <c r="A49" s="19"/>
       <c r="B49" s="2" t="s">
         <v>25</v>
       </c>
@@ -1894,8 +1898,8 @@
       <c r="I50" s="9"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A51" s="15" t="s">
-        <v>290</v>
+      <c r="A51" s="20" t="s">
+        <v>289</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>64</v>
@@ -1906,7 +1910,7 @@
       <c r="I51" s="9"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A52" s="16"/>
+      <c r="A52" s="21"/>
       <c r="B52" s="2" t="s">
         <v>66</v>
       </c>
@@ -1916,7 +1920,7 @@
       <c r="I52" s="9"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A53" s="16"/>
+      <c r="A53" s="21"/>
       <c r="B53" s="2" t="s">
         <v>67</v>
       </c>
@@ -1925,7 +1929,7 @@
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A54" s="16"/>
+      <c r="A54" s="21"/>
       <c r="B54" s="3" t="s">
         <v>69</v>
       </c>
@@ -1935,7 +1939,7 @@
       <c r="I54" s="9"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A55" s="16"/>
+      <c r="A55" s="21"/>
       <c r="B55" s="2" t="s">
         <v>71</v>
       </c>
@@ -1945,7 +1949,7 @@
       <c r="I55" s="9"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A56" s="16"/>
+      <c r="A56" s="21"/>
       <c r="B56" s="2" t="s">
         <v>49</v>
       </c>
@@ -1955,12 +1959,12 @@
       <c r="I56" s="9"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A57" s="16"/>
+      <c r="A57" s="21"/>
       <c r="B57" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C57" s="22" t="s">
-        <v>301</v>
+      <c r="C57" s="16" t="s">
+        <v>300</v>
       </c>
       <c r="D57" s="4" t="s">
         <v>75</v>
@@ -1968,12 +1972,12 @@
       <c r="I57" s="9"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A58" s="16"/>
+      <c r="A58" s="21"/>
       <c r="B58" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C58" s="22" t="s">
-        <v>300</v>
+      <c r="C58" s="16" t="s">
+        <v>299</v>
       </c>
       <c r="F58" s="7" t="s">
         <v>77</v>
@@ -1983,17 +1987,17 @@
       <c r="I58" s="10"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A59" s="16"/>
+      <c r="A59" s="21"/>
       <c r="B59" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C59" s="22" t="s">
-        <v>302</v>
+      <c r="C59" s="16" t="s">
+        <v>301</v>
       </c>
       <c r="I59" s="9"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A60" s="16"/>
+      <c r="A60" s="21"/>
       <c r="B60" s="3" t="s">
         <v>79</v>
       </c>
@@ -2006,7 +2010,7 @@
       <c r="I60" s="9"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A61" s="16"/>
+      <c r="A61" s="21"/>
       <c r="B61" s="2" t="s">
         <v>82</v>
       </c>
@@ -2016,7 +2020,7 @@
       <c r="I61" s="9"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A62" s="16"/>
+      <c r="A62" s="21"/>
       <c r="B62" s="2" t="s">
         <v>84</v>
       </c>
@@ -2026,7 +2030,7 @@
       <c r="I62" s="9"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A63" s="16"/>
+      <c r="A63" s="21"/>
       <c r="B63" s="2" t="s">
         <v>86</v>
       </c>
@@ -2036,7 +2040,7 @@
       <c r="I63" s="9"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A64" s="16"/>
+      <c r="A64" s="21"/>
       <c r="B64" s="2" t="s">
         <v>88</v>
       </c>
@@ -2046,7 +2050,7 @@
       <c r="I64" s="9"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A65" s="16"/>
+      <c r="A65" s="21"/>
       <c r="B65" s="3" t="s">
         <v>90</v>
       </c>
@@ -2058,7 +2062,7 @@
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A66" s="16"/>
+      <c r="A66" s="21"/>
       <c r="B66" s="3" t="s">
         <v>93</v>
       </c>
@@ -2067,7 +2071,7 @@
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A67" s="16"/>
+      <c r="A67" s="21"/>
       <c r="B67" s="2" t="s">
         <v>21</v>
       </c>
@@ -2076,7 +2080,7 @@
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A68" s="16"/>
+      <c r="A68" s="21"/>
       <c r="B68" s="2" t="s">
         <v>23</v>
       </c>
@@ -2085,7 +2089,7 @@
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A69" s="16"/>
+      <c r="A69" s="21"/>
       <c r="B69" s="2" t="s">
         <v>25</v>
       </c>
@@ -2094,7 +2098,7 @@
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A72" s="15" t="s">
+      <c r="A72" s="20" t="s">
         <v>95</v>
       </c>
       <c r="B72" s="3" t="s">
@@ -2105,28 +2109,28 @@
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A73" s="16"/>
-      <c r="B73" s="21" t="s">
+      <c r="A73" s="21"/>
+      <c r="B73" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="C73" s="21" t="s">
+      <c r="C73" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="D73" s="21" t="s">
-        <v>298</v>
+      <c r="D73" s="15" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A74" s="16"/>
+      <c r="A74" s="21"/>
       <c r="B74" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C74" s="3" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A75" s="16"/>
+      <c r="A75" s="21"/>
       <c r="B75" s="3" t="s">
         <v>97</v>
       </c>
@@ -2135,7 +2139,7 @@
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A76" s="16"/>
+      <c r="A76" s="21"/>
       <c r="B76" s="3" t="s">
         <v>99</v>
       </c>
@@ -2144,7 +2148,7 @@
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A77" s="16"/>
+      <c r="A77" s="21"/>
       <c r="B77" s="3" t="s">
         <v>101</v>
       </c>
@@ -2159,7 +2163,7 @@
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A78" s="16"/>
+      <c r="A78" s="21"/>
       <c r="B78" s="3" t="s">
         <v>105</v>
       </c>
@@ -2168,28 +2172,29 @@
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A79" s="16"/>
-      <c r="B79" s="3" t="s">
+      <c r="A79" s="21"/>
+      <c r="B79" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="C79" s="3" t="s">
+      <c r="C79" s="24" t="s">
         <v>108</v>
       </c>
+      <c r="D79" s="24"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A80" s="16"/>
+      <c r="A80" s="21"/>
       <c r="B80" s="3" t="s">
         <v>109</v>
       </c>
       <c r="C80" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="D80" s="4" t="s">
-        <v>111</v>
+      <c r="D80" s="15" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A81" s="16"/>
+      <c r="A81" s="21"/>
       <c r="B81" s="3" t="s">
         <v>93</v>
       </c>
@@ -2198,7 +2203,7 @@
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A82" s="16"/>
+      <c r="A82" s="21"/>
       <c r="B82" s="2" t="s">
         <v>21</v>
       </c>
@@ -2207,7 +2212,7 @@
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A83" s="16"/>
+      <c r="A83" s="21"/>
       <c r="B83" s="2" t="s">
         <v>23</v>
       </c>
@@ -2216,16 +2221,16 @@
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A84" s="16"/>
+      <c r="A84" s="21"/>
       <c r="B84" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C84" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C84" s="3" t="s">
-        <v>113</v>
-      </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A85" s="16"/>
+      <c r="A85" s="21"/>
       <c r="B85" s="2" t="s">
         <v>25</v>
       </c>
@@ -2235,7 +2240,7 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.15">
@@ -2246,77 +2251,77 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A92" s="23" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C92" s="3" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A93" s="15"/>
+      <c r="A93" s="20"/>
       <c r="B93" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C93" s="3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A94" s="15"/>
+      <c r="A94" s="20"/>
       <c r="B94" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C94" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="C94" s="3" t="s">
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A95" s="20"/>
+      <c r="B95" s="3" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A95" s="15"/>
-      <c r="B95" s="3" t="s">
+      <c r="C95" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="C95" s="3" t="s">
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A96" s="20"/>
+      <c r="B96" s="3" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A96" s="15"/>
-      <c r="B96" s="3" t="s">
+      <c r="C96" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C96" s="3" t="s">
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A97" s="20"/>
+      <c r="B97" s="3" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A97" s="15"/>
-      <c r="B97" s="3" t="s">
+      <c r="C97" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="C97" s="3" t="s">
+      <c r="D97" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="D97" s="4" t="s">
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A98" s="20"/>
+      <c r="B98" s="3" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A98" s="15"/>
-      <c r="B98" s="3" t="s">
+      <c r="C98" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="C98" s="3" t="s">
+      <c r="D98" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="D98" s="4" t="s">
-        <v>127</v>
-      </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A99" s="15"/>
+      <c r="A99" s="20"/>
       <c r="B99" s="2" t="s">
         <v>52</v>
       </c>
@@ -2325,91 +2330,91 @@
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A100" s="15"/>
+      <c r="A100" s="20"/>
       <c r="B100" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C100" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="C100" s="3" t="s">
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A101" s="20"/>
+      <c r="B101" s="2" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A101" s="15"/>
-      <c r="B101" s="2" t="s">
+      <c r="C101" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="C101" s="3" t="s">
+      <c r="D101" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="D101" s="4" t="s">
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A102" s="20"/>
+      <c r="B102" s="2" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A102" s="15"/>
-      <c r="B102" s="2" t="s">
+      <c r="C102" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="C102" s="3" t="s">
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A103" s="20"/>
+      <c r="B103" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A103" s="15"/>
-      <c r="B103" s="3" t="s">
+      <c r="C103" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="C103" s="3" t="s">
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A104" s="20"/>
+      <c r="B104" s="3" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A104" s="15"/>
-      <c r="B104" s="3" t="s">
+      <c r="C104" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="C104" s="3" t="s">
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A105" s="20"/>
+      <c r="B105" s="3" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A105" s="15"/>
-      <c r="B105" s="3" t="s">
+      <c r="C105" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="C105" s="3" t="s">
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A106" s="20"/>
+      <c r="B106" s="3" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A106" s="15"/>
-      <c r="B106" s="3" t="s">
+      <c r="C106" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="C106" s="3" t="s">
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A107" s="20"/>
+      <c r="B107" s="3" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A107" s="15"/>
-      <c r="B107" s="3" t="s">
+      <c r="C107" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="C107" s="3" t="s">
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A108" s="20"/>
+      <c r="B108" s="3" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A108" s="15"/>
-      <c r="B108" s="3" t="s">
+      <c r="C108" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="C108" s="3" t="s">
-        <v>146</v>
-      </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A109" s="15"/>
+      <c r="A109" s="20"/>
       <c r="B109" s="3" t="s">
         <v>93</v>
       </c>
@@ -2418,16 +2423,16 @@
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A110" s="15"/>
+      <c r="A110" s="20"/>
       <c r="B110" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C110" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="C110" s="3" t="s">
-        <v>148</v>
-      </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A111" s="15"/>
+      <c r="A111" s="20"/>
       <c r="B111" s="2" t="s">
         <v>21</v>
       </c>
@@ -2436,7 +2441,7 @@
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A112" s="15"/>
+      <c r="A112" s="20"/>
       <c r="B112" s="2" t="s">
         <v>23</v>
       </c>
@@ -2445,16 +2450,16 @@
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A113" s="15"/>
+      <c r="A113" s="20"/>
       <c r="B113" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C113" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C113" s="3" t="s">
-        <v>113</v>
-      </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A114" s="15"/>
+      <c r="A114" s="20"/>
       <c r="B114" s="2" t="s">
         <v>25</v>
       </c>
@@ -2463,102 +2468,102 @@
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A117" s="15" t="s">
+      <c r="A117" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="B117" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B117" s="3" t="s">
+      <c r="C117" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="C117" s="3" t="s">
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A118" s="21"/>
+      <c r="B118" s="3" t="s">
         <v>151</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A118" s="16"/>
-      <c r="B118" s="3" t="s">
-        <v>152</v>
       </c>
       <c r="C118" s="3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A119" s="16"/>
+      <c r="A119" s="21"/>
       <c r="B119" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C119" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="C119" s="3" t="s">
+      <c r="D119" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A120" s="21"/>
+      <c r="B120" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="D119" s="4" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A120" s="16"/>
-      <c r="B120" s="3" t="s">
+      <c r="C120" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="C120" s="3" t="s">
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A121" s="21"/>
+      <c r="B121" s="3" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A121" s="16"/>
-      <c r="B121" s="3" t="s">
+      <c r="C121" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="C121" s="3" t="s">
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A122" s="21"/>
+      <c r="B122" s="3" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A122" s="16"/>
-      <c r="B122" s="3" t="s">
+      <c r="C122" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="C122" s="3" t="s">
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A123" s="21"/>
+      <c r="B123" s="3" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A123" s="16"/>
-      <c r="B123" s="3" t="s">
+      <c r="C123" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="C123" s="3" t="s">
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A124" s="21"/>
+      <c r="B124" s="3" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A124" s="16"/>
-      <c r="B124" s="3" t="s">
+      <c r="C124" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="C124" s="3" t="s">
-        <v>164</v>
-      </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A125" s="16"/>
+      <c r="A125" s="21"/>
       <c r="B125" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C125" s="3" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A126" s="16"/>
+      <c r="A126" s="21"/>
       <c r="B126" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C126" s="3" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A127" s="16"/>
+      <c r="A127" s="21"/>
       <c r="B127" s="3" t="s">
         <v>93</v>
       </c>
@@ -2567,7 +2572,7 @@
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A128" s="16"/>
+      <c r="A128" s="21"/>
       <c r="B128" s="2" t="s">
         <v>21</v>
       </c>
@@ -2576,7 +2581,7 @@
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A129" s="16"/>
+      <c r="A129" s="21"/>
       <c r="B129" s="2" t="s">
         <v>23</v>
       </c>
@@ -2585,16 +2590,16 @@
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A130" s="16"/>
+      <c r="A130" s="21"/>
       <c r="B130" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C130" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C130" s="3" t="s">
-        <v>113</v>
-      </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A131" s="16"/>
+      <c r="A131" s="21"/>
       <c r="B131" s="2" t="s">
         <v>25</v>
       </c>
@@ -2603,18 +2608,18 @@
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A136" s="15" t="s">
+      <c r="A136" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="B136" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="B136" s="3" t="s">
+      <c r="C136" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="C136" s="3" t="s">
-        <v>168</v>
-      </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A137" s="16"/>
+      <c r="A137" s="21"/>
       <c r="B137" s="3" t="s">
         <v>64</v>
       </c>
@@ -2623,94 +2628,94 @@
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A138" s="16"/>
+      <c r="A138" s="21"/>
       <c r="B138" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C138" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="C138" s="3" t="s">
+      <c r="D138" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="D138" s="4" t="s">
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A139" s="21"/>
+      <c r="B139" s="3" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A139" s="16"/>
-      <c r="B139" s="3" t="s">
+      <c r="C139" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="C139" s="3" t="s">
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A140" s="21"/>
+      <c r="B140" s="3" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A140" s="16"/>
-      <c r="B140" s="3" t="s">
+      <c r="C140" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="C140" s="3" t="s">
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A141" s="21"/>
+      <c r="B141" s="3" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A141" s="16"/>
-      <c r="B141" s="3" t="s">
+      <c r="C141" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="C141" s="3" t="s">
+      <c r="D141" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="D141" s="4" t="s">
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A142" s="21"/>
+      <c r="B142" s="3" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A142" s="16"/>
-      <c r="B142" s="3" t="s">
+      <c r="C142" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="C142" s="3" t="s">
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A143" s="21"/>
+      <c r="B143" s="3" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A143" s="16"/>
-      <c r="B143" s="3" t="s">
+      <c r="C143" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="C143" s="3" t="s">
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A144" s="21"/>
+      <c r="B144" s="3" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A144" s="16"/>
-      <c r="B144" s="3" t="s">
+      <c r="C144" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="C144" s="3" t="s">
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A145" s="21"/>
+      <c r="B145" s="3" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A145" s="16"/>
-      <c r="B145" s="3" t="s">
+      <c r="C145" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="C145" s="3" t="s">
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A146" s="21"/>
+      <c r="B146" s="3" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A146" s="16"/>
-      <c r="B146" s="3" t="s">
+      <c r="C146" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="C146" s="3" t="s">
-        <v>188</v>
-      </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A147" s="16"/>
+      <c r="A147" s="21"/>
       <c r="B147" s="3" t="s">
         <v>93</v>
       </c>
@@ -2719,7 +2724,7 @@
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A148" s="16"/>
+      <c r="A148" s="21"/>
       <c r="B148" s="2" t="s">
         <v>21</v>
       </c>
@@ -2728,7 +2733,7 @@
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A149" s="16"/>
+      <c r="A149" s="21"/>
       <c r="B149" s="2" t="s">
         <v>23</v>
       </c>
@@ -2737,16 +2742,16 @@
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A150" s="16"/>
+      <c r="A150" s="21"/>
       <c r="B150" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C150" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C150" s="3" t="s">
-        <v>113</v>
-      </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A151" s="16"/>
+      <c r="A151" s="21"/>
       <c r="B151" s="2" t="s">
         <v>25</v>
       </c>
@@ -2755,114 +2760,114 @@
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A153" s="15" t="s">
+      <c r="A153" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="B153" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="B153" s="3" t="s">
+      <c r="C153" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="C153" s="3" t="s">
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A154" s="20"/>
+      <c r="B154" s="3" t="s">
         <v>191</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A154" s="15"/>
-      <c r="B154" s="3" t="s">
-        <v>192</v>
       </c>
       <c r="C154" s="3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A155" s="15"/>
+      <c r="A155" s="20"/>
       <c r="B155" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C155" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="C155" s="3" t="s">
-        <v>170</v>
-      </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A156" s="15"/>
+      <c r="A156" s="20"/>
       <c r="B156" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C156" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="C156" s="3" t="s">
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A157" s="20"/>
+      <c r="B157" s="3" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A157" s="15"/>
-      <c r="B157" s="3" t="s">
+      <c r="C157" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="C157" s="3" t="s">
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A158" s="20"/>
+      <c r="B158" s="3" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A158" s="15"/>
-      <c r="B158" s="3" t="s">
+      <c r="C158" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="C158" s="3" t="s">
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A159" s="20"/>
+      <c r="B159" s="3" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A159" s="15"/>
-      <c r="B159" s="3" t="s">
+      <c r="C159" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="C159" s="3" t="s">
+      <c r="D159" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="D159" s="4" t="s">
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A160" s="20"/>
+      <c r="B160" s="3" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A160" s="15"/>
-      <c r="B160" s="3" t="s">
+      <c r="C160" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="C160" s="3" t="s">
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A161" s="20"/>
+      <c r="B161" s="3" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A161" s="15"/>
-      <c r="B161" s="3" t="s">
+      <c r="C161" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="C161" s="3" t="s">
+      <c r="D161" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A162" s="20"/>
+      <c r="B162" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="D161" s="4" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A162" s="15"/>
-      <c r="B162" s="3" t="s">
-        <v>206</v>
-      </c>
       <c r="C162" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A163" s="15"/>
+      <c r="A163" s="20"/>
       <c r="B163" s="2" t="s">
         <v>93</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A164" s="15"/>
+      <c r="A164" s="20"/>
       <c r="B164" s="2" t="s">
         <v>21</v>
       </c>
@@ -2871,7 +2876,7 @@
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A165" s="15"/>
+      <c r="A165" s="20"/>
       <c r="B165" s="2" t="s">
         <v>23</v>
       </c>
@@ -2880,7 +2885,7 @@
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A166" s="15"/>
+      <c r="A166" s="20"/>
       <c r="B166" s="2" t="s">
         <v>25</v>
       </c>
@@ -2890,224 +2895,224 @@
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A169" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="B169" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="B169" s="3" t="s">
+      <c r="C169" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A170" s="22"/>
+      <c r="B170" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="C169" s="3" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A170" s="19"/>
-      <c r="B170" s="3" t="s">
+      <c r="C170" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="C170" s="3" t="s">
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A171" s="22"/>
+      <c r="B171" s="3" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A171" s="19"/>
-      <c r="B171" s="3" t="s">
+      <c r="C171" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="C171" s="3" t="s">
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A172" s="22"/>
+      <c r="B172" s="3" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A172" s="19"/>
-      <c r="B172" s="3" t="s">
+      <c r="C172" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="C172" s="3" t="s">
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A173" s="22"/>
+      <c r="B173" s="3" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A173" s="19"/>
-      <c r="B173" s="3" t="s">
+      <c r="C173" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="C173" s="3" t="s">
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A174" s="22"/>
+      <c r="B174" s="3" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A174" s="19"/>
-      <c r="B174" s="3" t="s">
+      <c r="C174" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="C174" s="3" t="s">
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A175" s="22"/>
+      <c r="B175" s="3" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A175" s="19"/>
-      <c r="B175" s="3" t="s">
+      <c r="C175" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="C175" s="3" t="s">
+      <c r="D175" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="D175" s="4" t="s">
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A176" s="22"/>
+      <c r="B176" s="3" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A176" s="19"/>
-      <c r="B176" s="3" t="s">
+      <c r="C176" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="C176" s="3" t="s">
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A177" s="22"/>
+      <c r="B177" s="3" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A177" s="19"/>
-      <c r="B177" s="3" t="s">
+      <c r="C177" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="C177" s="3" t="s">
+    </row>
+    <row r="178" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A178" s="22"/>
+      <c r="B178" s="3" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="178" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A178" s="19"/>
-      <c r="B178" s="3" t="s">
+      <c r="C178" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="C178" s="3" t="s">
+      <c r="E178" s="12"/>
+    </row>
+    <row r="179" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A179" s="22"/>
+      <c r="B179" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="E178" s="12"/>
-    </row>
-    <row r="179" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A179" s="19"/>
-      <c r="B179" s="3" t="s">
+      <c r="C179" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="C179" s="3" t="s">
+      <c r="D179" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="D179" s="4" t="s">
+      <c r="E179" s="12"/>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A180" s="22"/>
+      <c r="B180" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="E179" s="12"/>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A180" s="19"/>
-      <c r="B180" s="3" t="s">
+      <c r="C180" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="C180" s="3" t="s">
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A181" s="22"/>
+      <c r="B181" s="3" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A181" s="19"/>
-      <c r="B181" s="3" t="s">
+      <c r="C181" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="C181" s="3" t="s">
+    </row>
+    <row r="182" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A182" s="22"/>
+      <c r="B182" s="3" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="182" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A182" s="19"/>
-      <c r="B182" s="3" t="s">
+      <c r="C182" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="C182" s="3" t="s">
-        <v>237</v>
-      </c>
       <c r="E182" s="12"/>
     </row>
     <row r="183" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A183" s="19"/>
+      <c r="A183" s="22"/>
       <c r="B183" s="3"/>
       <c r="C183" s="11"/>
       <c r="E183" s="12"/>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A184" s="19"/>
+      <c r="A184" s="22"/>
       <c r="B184" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="C184" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="C184" s="3" t="s">
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A185" s="22"/>
+      <c r="B185" s="3" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A185" s="19"/>
-      <c r="B185" s="3" t="s">
+      <c r="C185" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="C185" s="3" t="s">
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A186" s="22"/>
+      <c r="B186" s="3" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A186" s="19"/>
-      <c r="B186" s="3" t="s">
+      <c r="C186" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="C186" s="3" t="s">
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A187" s="22"/>
+      <c r="B187" s="3" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A187" s="19"/>
-      <c r="B187" s="3" t="s">
+      <c r="C187" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="C187" s="3" t="s">
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A188" s="22"/>
+      <c r="B188" s="3" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A188" s="19"/>
-      <c r="B188" s="3" t="s">
+      <c r="C188" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="C188" s="3" t="s">
+      <c r="E188" s="13" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A189" s="22"/>
+      <c r="B189" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="E188" s="13" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A189" s="19"/>
-      <c r="B189" s="3" t="s">
+      <c r="C189" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="C189" s="3" t="s">
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A190" s="22"/>
+      <c r="B190" s="3" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A190" s="19"/>
-      <c r="B190" s="3" t="s">
+      <c r="C190" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="C190" s="3" t="s">
-        <v>251</v>
-      </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A191" s="19"/>
+      <c r="A191" s="22"/>
       <c r="B191" s="2" t="s">
         <v>93</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A192" s="19"/>
+      <c r="A192" s="22"/>
       <c r="B192" s="2" t="s">
         <v>21</v>
       </c>
@@ -3116,7 +3121,7 @@
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A193" s="19"/>
+      <c r="A193" s="22"/>
       <c r="B193" s="2" t="s">
         <v>23</v>
       </c>
@@ -3125,7 +3130,7 @@
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A194" s="19"/>
+      <c r="A194" s="22"/>
       <c r="B194" s="2" t="s">
         <v>25</v>
       </c>
@@ -3134,173 +3139,173 @@
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A197" s="15" t="s">
+      <c r="A197" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="B197" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="B197" s="3" t="s">
+      <c r="C197" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="C197" s="3" t="s">
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A198" s="20"/>
+      <c r="B198" s="3" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A198" s="15"/>
-      <c r="B198" s="3" t="s">
+      <c r="C198" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A199" s="20"/>
+      <c r="B199" s="3" t="s">
         <v>255</v>
-      </c>
-      <c r="C198" s="3" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A199" s="15"/>
-      <c r="B199" s="3" t="s">
-        <v>256</v>
       </c>
       <c r="C199" s="3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A200" s="15"/>
+      <c r="A200" s="20"/>
       <c r="B200" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C200" s="3" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A201" s="15"/>
+      <c r="A201" s="20"/>
       <c r="B201" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="C201" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="C201" s="3" t="s">
+      <c r="D201" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="D201" s="4" t="s">
-        <v>260</v>
-      </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A202" s="15"/>
+      <c r="A202" s="20"/>
       <c r="B202" s="11"/>
       <c r="C202" s="11"/>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A203" s="15"/>
+      <c r="A203" s="20"/>
       <c r="B203" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="C203" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="C203" s="3" t="s">
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A204" s="20"/>
+      <c r="B204" s="3" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A204" s="15"/>
-      <c r="B204" s="3" t="s">
+      <c r="C204" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="C204" s="3" t="s">
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A205" s="20"/>
+      <c r="B205" s="3" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A205" s="15"/>
-      <c r="B205" s="3" t="s">
+      <c r="C205" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="C205" s="3" t="s">
+      <c r="D205" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="D205" s="4" t="s">
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A206" s="20"/>
+      <c r="B206" s="3" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A206" s="15"/>
-      <c r="B206" s="3" t="s">
+      <c r="C206" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="C206" s="3" t="s">
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A207" s="20"/>
+      <c r="B207" s="3" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A207" s="15"/>
-      <c r="B207" s="3" t="s">
+      <c r="C207" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="C207" s="3" t="s">
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A208" s="20"/>
+      <c r="B208" s="3" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A208" s="15"/>
-      <c r="B208" s="3" t="s">
+      <c r="C208" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="C208" s="3" t="s">
+      <c r="D208" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="D208" s="4" t="s">
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A209" s="20"/>
+      <c r="B209" s="3" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A209" s="15"/>
-      <c r="B209" s="3" t="s">
+      <c r="C209" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="C209" s="3" t="s">
+      <c r="D209" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="D209" s="4" t="s">
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A210" s="20"/>
+      <c r="B210" s="3" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A210" s="15"/>
-      <c r="B210" s="3" t="s">
+      <c r="C210" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="C210" s="3" t="s">
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A211" s="20"/>
+      <c r="B211" s="3" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A211" s="15"/>
-      <c r="B211" s="3" t="s">
+      <c r="C211" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="C211" s="3" t="s">
+      <c r="D211" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A212" s="20"/>
+      <c r="B212" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C212" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="D211" s="4" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A212" s="15"/>
-      <c r="B212" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="C212" s="3" t="s">
-        <v>282</v>
-      </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A213" s="15"/>
+      <c r="A213" s="20"/>
       <c r="B213" s="2" t="s">
         <v>93</v>
       </c>
       <c r="C213" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A214" s="15"/>
+      <c r="A214" s="20"/>
       <c r="B214" s="2" t="s">
         <v>21</v>
       </c>
@@ -3309,7 +3314,7 @@
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A215" s="15"/>
+      <c r="A215" s="20"/>
       <c r="B215" s="2" t="s">
         <v>23</v>
       </c>
@@ -3318,7 +3323,7 @@
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A216" s="15"/>
+      <c r="A216" s="20"/>
       <c r="B216" s="2" t="s">
         <v>25</v>
       </c>
@@ -3327,30 +3332,25 @@
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A217" s="15"/>
+      <c r="A217" s="20"/>
       <c r="B217" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C217" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C217" s="3" t="s">
-        <v>113</v>
-      </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A218" s="15"/>
+      <c r="A218" s="20"/>
       <c r="B218" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C218" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A1:A13"/>
-    <mergeCell ref="A16:A30"/>
-    <mergeCell ref="A33:A37"/>
-    <mergeCell ref="A41:A49"/>
-    <mergeCell ref="A51:A69"/>
     <mergeCell ref="A169:A194"/>
     <mergeCell ref="A197:A218"/>
     <mergeCell ref="A72:A85"/>
@@ -3358,6 +3358,11 @@
     <mergeCell ref="A117:A131"/>
     <mergeCell ref="A136:A151"/>
     <mergeCell ref="A153:A166"/>
+    <mergeCell ref="A1:A13"/>
+    <mergeCell ref="A16:A30"/>
+    <mergeCell ref="A33:A37"/>
+    <mergeCell ref="A41:A49"/>
+    <mergeCell ref="A51:A69"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/双意图顺字段表.xlsx
+++ b/双意图顺字段表.xlsx
@@ -1132,7 +1132,22 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1140,21 +1155,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1433,8 +1433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I218"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I42" sqref="I42"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51:A69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1451,7 +1451,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>283</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -1462,7 +1462,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="18"/>
+      <c r="A2" s="23"/>
       <c r="B2" s="2" t="s">
         <v>291</v>
       </c>
@@ -1471,7 +1471,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="18"/>
+      <c r="A3" s="23"/>
       <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
@@ -1480,7 +1480,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="18"/>
+      <c r="A4" s="23"/>
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
@@ -1492,7 +1492,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="18"/>
+      <c r="A5" s="23"/>
       <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
@@ -1504,7 +1504,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="18"/>
+      <c r="A6" s="23"/>
       <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
@@ -1516,7 +1516,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" s="18"/>
+      <c r="A7" s="23"/>
       <c r="B7" s="2" t="s">
         <v>12</v>
       </c>
@@ -1528,7 +1528,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8" s="18"/>
+      <c r="A8" s="23"/>
       <c r="B8" s="2" t="s">
         <v>14</v>
       </c>
@@ -1540,7 +1540,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" s="18"/>
+      <c r="A9" s="23"/>
       <c r="B9" s="2" t="s">
         <v>16</v>
       </c>
@@ -1552,7 +1552,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10" s="18"/>
+      <c r="A10" s="23"/>
       <c r="B10" s="2" t="s">
         <v>18</v>
       </c>
@@ -1564,7 +1564,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11" s="18"/>
+      <c r="A11" s="23"/>
       <c r="B11" s="2" t="s">
         <v>21</v>
       </c>
@@ -1573,7 +1573,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A12" s="18"/>
+      <c r="A12" s="23"/>
       <c r="B12" s="2" t="s">
         <v>23</v>
       </c>
@@ -1582,7 +1582,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A13" s="18"/>
+      <c r="A13" s="23"/>
       <c r="B13" s="2" t="s">
         <v>25</v>
       </c>
@@ -1601,7 +1601,7 @@
       <c r="C15" s="4"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="18" t="s">
         <v>284</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -1612,7 +1612,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A17" s="18"/>
+      <c r="A17" s="23"/>
       <c r="B17" s="2" t="s">
         <v>27</v>
       </c>
@@ -1621,7 +1621,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A18" s="18"/>
+      <c r="A18" s="23"/>
       <c r="B18" s="2" t="s">
         <v>29</v>
       </c>
@@ -1630,7 +1630,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A19" s="18"/>
+      <c r="A19" s="23"/>
       <c r="B19" s="2" t="s">
         <v>31</v>
       </c>
@@ -1639,7 +1639,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A20" s="18"/>
+      <c r="A20" s="23"/>
       <c r="B20" s="2" t="s">
         <v>33</v>
       </c>
@@ -1648,7 +1648,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A21" s="18"/>
+      <c r="A21" s="23"/>
       <c r="B21" s="2" t="s">
         <v>35</v>
       </c>
@@ -1657,7 +1657,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A22" s="18"/>
+      <c r="A22" s="23"/>
       <c r="B22" s="2" t="s">
         <v>37</v>
       </c>
@@ -1666,7 +1666,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A23" s="18"/>
+      <c r="A23" s="23"/>
       <c r="B23" s="2" t="s">
         <v>39</v>
       </c>
@@ -1675,7 +1675,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A24" s="18"/>
+      <c r="A24" s="23"/>
       <c r="B24" s="2" t="s">
         <v>41</v>
       </c>
@@ -1684,7 +1684,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A25" s="18"/>
+      <c r="A25" s="23"/>
       <c r="B25" s="2" t="s">
         <v>43</v>
       </c>
@@ -1693,7 +1693,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A26" s="18"/>
+      <c r="A26" s="23"/>
       <c r="B26" s="2" t="s">
         <v>45</v>
       </c>
@@ -1702,7 +1702,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A27" s="18"/>
+      <c r="A27" s="23"/>
       <c r="B27" s="2" t="s">
         <v>47</v>
       </c>
@@ -1711,7 +1711,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A28" s="18"/>
+      <c r="A28" s="23"/>
       <c r="B28" s="2" t="s">
         <v>21</v>
       </c>
@@ -1720,7 +1720,7 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A29" s="18"/>
+      <c r="A29" s="23"/>
       <c r="B29" s="2" t="s">
         <v>23</v>
       </c>
@@ -1729,7 +1729,7 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A30" s="18"/>
+      <c r="A30" s="23"/>
       <c r="B30" s="2" t="s">
         <v>25</v>
       </c>
@@ -1746,7 +1746,7 @@
       <c r="C32" s="4"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A33" s="17" t="s">
+      <c r="A33" s="18" t="s">
         <v>288</v>
       </c>
       <c r="B33" s="2" t="s">
@@ -1757,7 +1757,7 @@
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A34" s="18"/>
+      <c r="A34" s="23"/>
       <c r="B34" s="2" t="s">
         <v>294</v>
       </c>
@@ -1769,7 +1769,7 @@
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A35" s="18"/>
+      <c r="A35" s="23"/>
       <c r="B35" s="2" t="s">
         <v>21</v>
       </c>
@@ -1778,7 +1778,7 @@
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A36" s="18"/>
+      <c r="A36" s="23"/>
       <c r="B36" s="2" t="s">
         <v>23</v>
       </c>
@@ -1787,7 +1787,7 @@
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A37" s="18"/>
+      <c r="A37" s="23"/>
       <c r="B37" s="2" t="s">
         <v>25</v>
       </c>
@@ -1806,7 +1806,7 @@
       <c r="A40" s="5"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A41" s="19" t="s">
+      <c r="A41" s="24" t="s">
         <v>51</v>
       </c>
       <c r="B41" s="2" t="s">
@@ -1817,7 +1817,7 @@
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A42" s="19"/>
+      <c r="A42" s="24"/>
       <c r="B42" s="2" t="s">
         <v>54</v>
       </c>
@@ -1826,7 +1826,7 @@
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A43" s="19"/>
+      <c r="A43" s="24"/>
       <c r="B43" s="2" t="s">
         <v>56</v>
       </c>
@@ -1835,7 +1835,7 @@
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A44" s="19"/>
+      <c r="A44" s="24"/>
       <c r="B44" s="2" t="s">
         <v>58</v>
       </c>
@@ -1845,7 +1845,7 @@
       <c r="I44" s="9"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A45" s="19"/>
+      <c r="A45" s="24"/>
       <c r="B45" s="2" t="s">
         <v>60</v>
       </c>
@@ -1854,7 +1854,7 @@
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A46" s="19"/>
+      <c r="A46" s="24"/>
       <c r="B46" s="2" t="s">
         <v>62</v>
       </c>
@@ -1866,7 +1866,7 @@
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A47" s="19"/>
+      <c r="A47" s="24"/>
       <c r="B47" s="2" t="s">
         <v>21</v>
       </c>
@@ -1875,7 +1875,7 @@
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A48" s="19"/>
+      <c r="A48" s="24"/>
       <c r="B48" s="2" t="s">
         <v>23</v>
       </c>
@@ -1885,7 +1885,7 @@
       <c r="I48" s="9"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A49" s="19"/>
+      <c r="A49" s="24"/>
       <c r="B49" s="2" t="s">
         <v>25</v>
       </c>
@@ -1898,7 +1898,7 @@
       <c r="I50" s="9"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A51" s="20" t="s">
+      <c r="A51" s="18" t="s">
         <v>289</v>
       </c>
       <c r="B51" s="2" t="s">
@@ -1910,7 +1910,7 @@
       <c r="I51" s="9"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A52" s="21"/>
+      <c r="A52" s="19"/>
       <c r="B52" s="2" t="s">
         <v>66</v>
       </c>
@@ -1920,7 +1920,7 @@
       <c r="I52" s="9"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A53" s="21"/>
+      <c r="A53" s="19"/>
       <c r="B53" s="2" t="s">
         <v>67</v>
       </c>
@@ -1929,7 +1929,7 @@
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A54" s="21"/>
+      <c r="A54" s="19"/>
       <c r="B54" s="3" t="s">
         <v>69</v>
       </c>
@@ -1939,7 +1939,7 @@
       <c r="I54" s="9"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A55" s="21"/>
+      <c r="A55" s="19"/>
       <c r="B55" s="2" t="s">
         <v>71</v>
       </c>
@@ -1949,7 +1949,7 @@
       <c r="I55" s="9"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A56" s="21"/>
+      <c r="A56" s="19"/>
       <c r="B56" s="2" t="s">
         <v>49</v>
       </c>
@@ -1959,7 +1959,7 @@
       <c r="I56" s="9"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A57" s="21"/>
+      <c r="A57" s="19"/>
       <c r="B57" s="2" t="s">
         <v>74</v>
       </c>
@@ -1972,7 +1972,7 @@
       <c r="I57" s="9"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A58" s="21"/>
+      <c r="A58" s="19"/>
       <c r="B58" s="3" t="s">
         <v>76</v>
       </c>
@@ -1987,7 +1987,7 @@
       <c r="I58" s="10"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A59" s="21"/>
+      <c r="A59" s="19"/>
       <c r="B59" s="3" t="s">
         <v>78</v>
       </c>
@@ -1997,7 +1997,7 @@
       <c r="I59" s="9"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A60" s="21"/>
+      <c r="A60" s="19"/>
       <c r="B60" s="3" t="s">
         <v>79</v>
       </c>
@@ -2010,7 +2010,7 @@
       <c r="I60" s="9"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A61" s="21"/>
+      <c r="A61" s="19"/>
       <c r="B61" s="2" t="s">
         <v>82</v>
       </c>
@@ -2020,7 +2020,7 @@
       <c r="I61" s="9"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A62" s="21"/>
+      <c r="A62" s="19"/>
       <c r="B62" s="2" t="s">
         <v>84</v>
       </c>
@@ -2030,7 +2030,7 @@
       <c r="I62" s="9"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A63" s="21"/>
+      <c r="A63" s="19"/>
       <c r="B63" s="2" t="s">
         <v>86</v>
       </c>
@@ -2040,7 +2040,7 @@
       <c r="I63" s="9"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A64" s="21"/>
+      <c r="A64" s="19"/>
       <c r="B64" s="2" t="s">
         <v>88</v>
       </c>
@@ -2050,7 +2050,7 @@
       <c r="I64" s="9"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A65" s="21"/>
+      <c r="A65" s="19"/>
       <c r="B65" s="3" t="s">
         <v>90</v>
       </c>
@@ -2062,7 +2062,7 @@
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A66" s="21"/>
+      <c r="A66" s="19"/>
       <c r="B66" s="3" t="s">
         <v>93</v>
       </c>
@@ -2071,7 +2071,7 @@
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A67" s="21"/>
+      <c r="A67" s="19"/>
       <c r="B67" s="2" t="s">
         <v>21</v>
       </c>
@@ -2080,7 +2080,7 @@
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A68" s="21"/>
+      <c r="A68" s="19"/>
       <c r="B68" s="2" t="s">
         <v>23</v>
       </c>
@@ -2089,7 +2089,7 @@
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A69" s="21"/>
+      <c r="A69" s="19"/>
       <c r="B69" s="2" t="s">
         <v>25</v>
       </c>
@@ -2098,7 +2098,7 @@
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A72" s="20" t="s">
+      <c r="A72" s="18" t="s">
         <v>95</v>
       </c>
       <c r="B72" s="3" t="s">
@@ -2109,7 +2109,7 @@
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A73" s="21"/>
+      <c r="A73" s="19"/>
       <c r="B73" s="15" t="s">
         <v>96</v>
       </c>
@@ -2121,7 +2121,7 @@
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A74" s="21"/>
+      <c r="A74" s="19"/>
       <c r="B74" s="3" t="s">
         <v>296</v>
       </c>
@@ -2130,7 +2130,7 @@
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A75" s="21"/>
+      <c r="A75" s="19"/>
       <c r="B75" s="3" t="s">
         <v>97</v>
       </c>
@@ -2139,7 +2139,7 @@
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A76" s="21"/>
+      <c r="A76" s="19"/>
       <c r="B76" s="3" t="s">
         <v>99</v>
       </c>
@@ -2148,7 +2148,7 @@
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A77" s="21"/>
+      <c r="A77" s="19"/>
       <c r="B77" s="3" t="s">
         <v>101</v>
       </c>
@@ -2163,7 +2163,7 @@
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A78" s="21"/>
+      <c r="A78" s="19"/>
       <c r="B78" s="3" t="s">
         <v>105</v>
       </c>
@@ -2172,17 +2172,17 @@
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A79" s="21"/>
-      <c r="B79" s="24" t="s">
+      <c r="A79" s="19"/>
+      <c r="B79" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="C79" s="24" t="s">
+      <c r="C79" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="D79" s="24"/>
+      <c r="D79" s="17"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A80" s="21"/>
+      <c r="A80" s="19"/>
       <c r="B80" s="3" t="s">
         <v>109</v>
       </c>
@@ -2194,7 +2194,7 @@
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A81" s="21"/>
+      <c r="A81" s="19"/>
       <c r="B81" s="3" t="s">
         <v>93</v>
       </c>
@@ -2203,7 +2203,7 @@
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A82" s="21"/>
+      <c r="A82" s="19"/>
       <c r="B82" s="2" t="s">
         <v>21</v>
       </c>
@@ -2212,7 +2212,7 @@
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A83" s="21"/>
+      <c r="A83" s="19"/>
       <c r="B83" s="2" t="s">
         <v>23</v>
       </c>
@@ -2221,7 +2221,7 @@
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A84" s="21"/>
+      <c r="A84" s="19"/>
       <c r="B84" s="2" t="s">
         <v>111</v>
       </c>
@@ -2230,7 +2230,7 @@
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A85" s="21"/>
+      <c r="A85" s="19"/>
       <c r="B85" s="2" t="s">
         <v>25</v>
       </c>
@@ -2250,7 +2250,7 @@
       <c r="B91" s="9"/>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A92" s="23" t="s">
+      <c r="A92" s="22" t="s">
         <v>302</v>
       </c>
       <c r="B92" s="3" t="s">
@@ -2894,7 +2894,7 @@
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A169" s="17" t="s">
+      <c r="A169" s="18" t="s">
         <v>207</v>
       </c>
       <c r="B169" s="3" t="s">
@@ -2905,7 +2905,7 @@
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A170" s="22"/>
+      <c r="A170" s="19"/>
       <c r="B170" s="3" t="s">
         <v>209</v>
       </c>
@@ -2914,7 +2914,7 @@
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A171" s="22"/>
+      <c r="A171" s="19"/>
       <c r="B171" s="3" t="s">
         <v>211</v>
       </c>
@@ -2923,7 +2923,7 @@
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A172" s="22"/>
+      <c r="A172" s="19"/>
       <c r="B172" s="3" t="s">
         <v>213</v>
       </c>
@@ -2932,7 +2932,7 @@
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A173" s="22"/>
+      <c r="A173" s="19"/>
       <c r="B173" s="3" t="s">
         <v>215</v>
       </c>
@@ -2941,7 +2941,7 @@
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A174" s="22"/>
+      <c r="A174" s="19"/>
       <c r="B174" s="3" t="s">
         <v>217</v>
       </c>
@@ -2950,7 +2950,7 @@
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A175" s="22"/>
+      <c r="A175" s="19"/>
       <c r="B175" s="3" t="s">
         <v>219</v>
       </c>
@@ -2962,7 +2962,7 @@
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A176" s="22"/>
+      <c r="A176" s="19"/>
       <c r="B176" s="3" t="s">
         <v>222</v>
       </c>
@@ -2971,7 +2971,7 @@
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A177" s="22"/>
+      <c r="A177" s="19"/>
       <c r="B177" s="3" t="s">
         <v>224</v>
       </c>
@@ -2980,7 +2980,7 @@
       </c>
     </row>
     <row r="178" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A178" s="22"/>
+      <c r="A178" s="19"/>
       <c r="B178" s="3" t="s">
         <v>226</v>
       </c>
@@ -2990,7 +2990,7 @@
       <c r="E178" s="12"/>
     </row>
     <row r="179" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A179" s="22"/>
+      <c r="A179" s="19"/>
       <c r="B179" s="3" t="s">
         <v>228</v>
       </c>
@@ -3003,7 +3003,7 @@
       <c r="E179" s="12"/>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A180" s="22"/>
+      <c r="A180" s="19"/>
       <c r="B180" s="3" t="s">
         <v>231</v>
       </c>
@@ -3012,7 +3012,7 @@
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A181" s="22"/>
+      <c r="A181" s="19"/>
       <c r="B181" s="3" t="s">
         <v>233</v>
       </c>
@@ -3021,7 +3021,7 @@
       </c>
     </row>
     <row r="182" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A182" s="22"/>
+      <c r="A182" s="19"/>
       <c r="B182" s="3" t="s">
         <v>235</v>
       </c>
@@ -3031,13 +3031,13 @@
       <c r="E182" s="12"/>
     </row>
     <row r="183" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A183" s="22"/>
+      <c r="A183" s="19"/>
       <c r="B183" s="3"/>
       <c r="C183" s="11"/>
       <c r="E183" s="12"/>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A184" s="22"/>
+      <c r="A184" s="19"/>
       <c r="B184" s="3" t="s">
         <v>237</v>
       </c>
@@ -3046,7 +3046,7 @@
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A185" s="22"/>
+      <c r="A185" s="19"/>
       <c r="B185" s="3" t="s">
         <v>239</v>
       </c>
@@ -3055,7 +3055,7 @@
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A186" s="22"/>
+      <c r="A186" s="19"/>
       <c r="B186" s="3" t="s">
         <v>241</v>
       </c>
@@ -3064,7 +3064,7 @@
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A187" s="22"/>
+      <c r="A187" s="19"/>
       <c r="B187" s="3" t="s">
         <v>243</v>
       </c>
@@ -3073,7 +3073,7 @@
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A188" s="22"/>
+      <c r="A188" s="19"/>
       <c r="B188" s="3" t="s">
         <v>245</v>
       </c>
@@ -3085,7 +3085,7 @@
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A189" s="22"/>
+      <c r="A189" s="19"/>
       <c r="B189" s="3" t="s">
         <v>247</v>
       </c>
@@ -3094,7 +3094,7 @@
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A190" s="22"/>
+      <c r="A190" s="19"/>
       <c r="B190" s="3" t="s">
         <v>249</v>
       </c>
@@ -3103,7 +3103,7 @@
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A191" s="22"/>
+      <c r="A191" s="19"/>
       <c r="B191" s="2" t="s">
         <v>93</v>
       </c>
@@ -3112,7 +3112,7 @@
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A192" s="22"/>
+      <c r="A192" s="19"/>
       <c r="B192" s="2" t="s">
         <v>21</v>
       </c>
@@ -3121,7 +3121,7 @@
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A193" s="22"/>
+      <c r="A193" s="19"/>
       <c r="B193" s="2" t="s">
         <v>23</v>
       </c>
@@ -3130,7 +3130,7 @@
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A194" s="22"/>
+      <c r="A194" s="19"/>
       <c r="B194" s="2" t="s">
         <v>25</v>
       </c>
@@ -3351,6 +3351,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:A13"/>
+    <mergeCell ref="A16:A30"/>
+    <mergeCell ref="A33:A37"/>
+    <mergeCell ref="A41:A49"/>
+    <mergeCell ref="A51:A69"/>
     <mergeCell ref="A169:A194"/>
     <mergeCell ref="A197:A218"/>
     <mergeCell ref="A72:A85"/>
@@ -3358,11 +3363,6 @@
     <mergeCell ref="A117:A131"/>
     <mergeCell ref="A136:A151"/>
     <mergeCell ref="A153:A166"/>
-    <mergeCell ref="A1:A13"/>
-    <mergeCell ref="A16:A30"/>
-    <mergeCell ref="A33:A37"/>
-    <mergeCell ref="A41:A49"/>
-    <mergeCell ref="A51:A69"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/双意图顺字段表.xlsx
+++ b/双意图顺字段表.xlsx
@@ -174,10 +174,6 @@
     <t>insureDataID</t>
   </si>
   <si>
-    <t>维修厂字典
-repairClassData</t>
-  </si>
-  <si>
     <t>维修厂序号</t>
   </si>
   <si>
@@ -187,9 +183,6 @@
     <t>维修厂名称</t>
   </si>
   <si>
-    <t>repairName</t>
-  </si>
-  <si>
     <t>维修厂地址</t>
   </si>
   <si>
@@ -226,9 +219,6 @@
     <t>车牌号</t>
   </si>
   <si>
-    <t>carNumber</t>
-  </si>
-  <si>
     <t>发动机号</t>
   </si>
   <si>
@@ -307,17 +297,10 @@
     <t>remark</t>
   </si>
   <si>
-    <t>保险记录表
-insureData</t>
-  </si>
-  <si>
     <t>被保养车辆编号</t>
   </si>
   <si>
     <t>保单号</t>
-  </si>
-  <si>
-    <t>insureNumber</t>
   </si>
   <si>
     <t>保险起保时间</t>
@@ -904,11 +887,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>车辆基本信息
-carData</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>车辆关联保险记录表</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -954,6 +932,10 @@
   </si>
   <si>
     <t>shoeSpecs</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>强险/商业险</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -964,7 +946,30 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>强险/商业险</t>
+    <t>车辆基本信息
+carData</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>carNumber</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>维修厂字典
+repairClassData</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>repairName</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>保险记录表
+insureData</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>insureNumber</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1080,7 +1085,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1138,23 +1143,17 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1433,8 +1432,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I218"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51:A69"/>
+    <sheetView tabSelected="1" topLeftCell="A169" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A197" sqref="A197:A218"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1452,7 +1451,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="18" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1462,16 +1461,16 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="23"/>
+      <c r="A2" s="19"/>
       <c r="B2" s="2" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="23"/>
+      <c r="A3" s="19"/>
       <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
@@ -1480,7 +1479,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="23"/>
+      <c r="A4" s="19"/>
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
@@ -1488,11 +1487,11 @@
         <v>7</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="23"/>
+      <c r="A5" s="19"/>
       <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
@@ -1500,11 +1499,11 @@
         <v>9</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="23"/>
+      <c r="A6" s="19"/>
       <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
@@ -1512,11 +1511,11 @@
         <v>11</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" s="23"/>
+      <c r="A7" s="19"/>
       <c r="B7" s="2" t="s">
         <v>12</v>
       </c>
@@ -1524,11 +1523,11 @@
         <v>13</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8" s="23"/>
+      <c r="A8" s="19"/>
       <c r="B8" s="2" t="s">
         <v>14</v>
       </c>
@@ -1536,11 +1535,11 @@
         <v>15</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" s="23"/>
+      <c r="A9" s="19"/>
       <c r="B9" s="2" t="s">
         <v>16</v>
       </c>
@@ -1548,11 +1547,11 @@
         <v>17</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10" s="23"/>
+      <c r="A10" s="19"/>
       <c r="B10" s="2" t="s">
         <v>18</v>
       </c>
@@ -1564,7 +1563,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11" s="23"/>
+      <c r="A11" s="19"/>
       <c r="B11" s="2" t="s">
         <v>21</v>
       </c>
@@ -1573,7 +1572,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A12" s="23"/>
+      <c r="A12" s="19"/>
       <c r="B12" s="2" t="s">
         <v>23</v>
       </c>
@@ -1582,7 +1581,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A13" s="23"/>
+      <c r="A13" s="19"/>
       <c r="B13" s="2" t="s">
         <v>25</v>
       </c>
@@ -1602,7 +1601,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" s="18" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>2</v>
@@ -1612,7 +1611,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A17" s="23"/>
+      <c r="A17" s="19"/>
       <c r="B17" s="2" t="s">
         <v>27</v>
       </c>
@@ -1621,7 +1620,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A18" s="23"/>
+      <c r="A18" s="19"/>
       <c r="B18" s="2" t="s">
         <v>29</v>
       </c>
@@ -1630,7 +1629,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A19" s="23"/>
+      <c r="A19" s="19"/>
       <c r="B19" s="2" t="s">
         <v>31</v>
       </c>
@@ -1639,7 +1638,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A20" s="23"/>
+      <c r="A20" s="19"/>
       <c r="B20" s="2" t="s">
         <v>33</v>
       </c>
@@ -1648,7 +1647,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A21" s="23"/>
+      <c r="A21" s="19"/>
       <c r="B21" s="2" t="s">
         <v>35</v>
       </c>
@@ -1657,7 +1656,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A22" s="23"/>
+      <c r="A22" s="19"/>
       <c r="B22" s="2" t="s">
         <v>37</v>
       </c>
@@ -1666,7 +1665,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A23" s="23"/>
+      <c r="A23" s="19"/>
       <c r="B23" s="2" t="s">
         <v>39</v>
       </c>
@@ -1675,7 +1674,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A24" s="23"/>
+      <c r="A24" s="19"/>
       <c r="B24" s="2" t="s">
         <v>41</v>
       </c>
@@ -1684,7 +1683,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A25" s="23"/>
+      <c r="A25" s="19"/>
       <c r="B25" s="2" t="s">
         <v>43</v>
       </c>
@@ -1693,7 +1692,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A26" s="23"/>
+      <c r="A26" s="19"/>
       <c r="B26" s="2" t="s">
         <v>45</v>
       </c>
@@ -1702,7 +1701,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A27" s="23"/>
+      <c r="A27" s="19"/>
       <c r="B27" s="2" t="s">
         <v>47</v>
       </c>
@@ -1711,7 +1710,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A28" s="23"/>
+      <c r="A28" s="19"/>
       <c r="B28" s="2" t="s">
         <v>21</v>
       </c>
@@ -1720,7 +1719,7 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A29" s="23"/>
+      <c r="A29" s="19"/>
       <c r="B29" s="2" t="s">
         <v>23</v>
       </c>
@@ -1729,7 +1728,7 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A30" s="23"/>
+      <c r="A30" s="19"/>
       <c r="B30" s="2" t="s">
         <v>25</v>
       </c>
@@ -1747,7 +1746,7 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A33" s="18" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>49</v>
@@ -1757,19 +1756,19 @@
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A34" s="23"/>
+      <c r="A34" s="19"/>
       <c r="B34" s="2" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="E34" s="14" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A35" s="23"/>
+      <c r="A35" s="19"/>
       <c r="B35" s="2" t="s">
         <v>21</v>
       </c>
@@ -1778,7 +1777,7 @@
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A36" s="23"/>
+      <c r="A36" s="19"/>
       <c r="B36" s="2" t="s">
         <v>23</v>
       </c>
@@ -1787,7 +1786,7 @@
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A37" s="23"/>
+      <c r="A37" s="19"/>
       <c r="B37" s="2" t="s">
         <v>25</v>
       </c>
@@ -1806,67 +1805,67 @@
       <c r="A40" s="5"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A41" s="24" t="s">
+      <c r="A41" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="C41" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C41" s="3" t="s">
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A42" s="20"/>
+      <c r="B42" s="2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A42" s="24"/>
-      <c r="B42" s="2" t="s">
+      <c r="C42" s="3" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A43" s="20"/>
+      <c r="B43" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C43" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A43" s="24"/>
-      <c r="B43" s="2" t="s">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A44" s="20"/>
+      <c r="B44" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C44" s="3" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A44" s="24"/>
-      <c r="B44" s="2" t="s">
+      <c r="I44" s="9"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A45" s="20"/>
+      <c r="B45" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C45" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="I44" s="9"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A45" s="24"/>
-      <c r="B45" s="2" t="s">
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A46" s="20"/>
+      <c r="B46" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A46" s="24"/>
-      <c r="B46" s="2" t="s">
-        <v>62</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A47" s="24"/>
+      <c r="A47" s="20"/>
       <c r="B47" s="2" t="s">
         <v>21</v>
       </c>
@@ -1875,7 +1874,7 @@
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A48" s="24"/>
+      <c r="A48" s="20"/>
       <c r="B48" s="2" t="s">
         <v>23</v>
       </c>
@@ -1885,7 +1884,7 @@
       <c r="I48" s="9"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A49" s="24"/>
+      <c r="A49" s="20"/>
       <c r="B49" s="2" t="s">
         <v>25</v>
       </c>
@@ -1899,20 +1898,20 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A51" s="18" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="B51" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="I51" s="9"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A52" s="21"/>
+      <c r="B52" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="I51" s="9"/>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A52" s="19"/>
-      <c r="B52" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>1</v>
@@ -1920,158 +1919,158 @@
       <c r="I52" s="9"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A53" s="19"/>
+      <c r="A53" s="21"/>
       <c r="B53" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A54" s="21"/>
+      <c r="B54" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C54" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="I54" s="9"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A55" s="21"/>
+      <c r="B55" s="2" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A54" s="19"/>
-      <c r="B54" s="3" t="s">
+      <c r="C55" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C54" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="I54" s="9"/>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A55" s="19"/>
-      <c r="B55" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>72</v>
-      </c>
       <c r="I55" s="9"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A56" s="19"/>
+      <c r="A56" s="21"/>
       <c r="B56" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C56" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="I56" s="9"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A57" s="21"/>
+      <c r="B57" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C57" s="16" t="s">
+        <v>294</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="I57" s="9"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A58" s="21"/>
+      <c r="B58" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="I56" s="9"/>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A57" s="19"/>
-      <c r="B57" s="2" t="s">
+      <c r="C58" s="16" t="s">
+        <v>293</v>
+      </c>
+      <c r="F58" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="C57" s="16" t="s">
-        <v>300</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="I57" s="9"/>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A58" s="19"/>
-      <c r="B58" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C58" s="16" t="s">
-        <v>299</v>
-      </c>
-      <c r="F58" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="G58" s="8"/>
       <c r="H58" s="8"/>
       <c r="I58" s="10"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A59" s="19"/>
+      <c r="A59" s="21"/>
       <c r="B59" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C59" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="I59" s="9"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A60" s="21"/>
+      <c r="B60" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D60" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C59" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="I59" s="9"/>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A60" s="19"/>
-      <c r="B60" s="3" t="s">
+      <c r="I60" s="9"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A61" s="21"/>
+      <c r="B61" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C60" s="3" t="s">
+      <c r="C61" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D60" s="4" t="s">
+      <c r="I61" s="9"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A62" s="21"/>
+      <c r="B62" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="I60" s="9"/>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A61" s="19"/>
-      <c r="B61" s="2" t="s">
+      <c r="C62" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C61" s="3" t="s">
+      <c r="I62" s="9"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A63" s="21"/>
+      <c r="B63" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="I61" s="9"/>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A62" s="19"/>
-      <c r="B62" s="2" t="s">
+      <c r="C63" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C62" s="3" t="s">
+      <c r="I63" s="9"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A64" s="21"/>
+      <c r="B64" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="I62" s="9"/>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A63" s="19"/>
-      <c r="B63" s="2" t="s">
+      <c r="C64" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C63" s="3" t="s">
+      <c r="I64" s="9"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A65" s="21"/>
+      <c r="B65" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="I63" s="9"/>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A64" s="19"/>
-      <c r="B64" s="2" t="s">
+      <c r="C65" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C64" s="3" t="s">
+      <c r="D65" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="I64" s="9"/>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A65" s="19"/>
-      <c r="B65" s="3" t="s">
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A66" s="21"/>
+      <c r="B66" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C65" s="3" t="s">
+      <c r="C66" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D65" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A66" s="19"/>
-      <c r="B66" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>94</v>
-      </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A67" s="19"/>
+      <c r="A67" s="21"/>
       <c r="B67" s="2" t="s">
         <v>21</v>
       </c>
@@ -2080,7 +2079,7 @@
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A68" s="19"/>
+      <c r="A68" s="21"/>
       <c r="B68" s="2" t="s">
         <v>23</v>
       </c>
@@ -2089,7 +2088,7 @@
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A69" s="19"/>
+      <c r="A69" s="21"/>
       <c r="B69" s="2" t="s">
         <v>25</v>
       </c>
@@ -2099,111 +2098,111 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A72" s="18" t="s">
-        <v>95</v>
+        <v>302</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>49</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A73" s="19"/>
+      <c r="A73" s="21"/>
       <c r="B73" s="15" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C73" s="15" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D73" s="15" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A74" s="19"/>
+      <c r="A74" s="21"/>
       <c r="B74" s="3" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="C74" s="3" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A75" s="19"/>
+      <c r="A75" s="21"/>
       <c r="B75" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A76" s="21"/>
+      <c r="B76" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A77" s="21"/>
+      <c r="B77" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C77" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C75" s="3" t="s">
+      <c r="D77" s="4" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A76" s="19"/>
-      <c r="B76" s="3" t="s">
+      <c r="E77" t="s">
         <v>99</v>
       </c>
-      <c r="C76" s="3" t="s">
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A78" s="21"/>
+      <c r="B78" s="3" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A77" s="19"/>
-      <c r="B77" s="3" t="s">
+      <c r="C78" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="C77" s="3" t="s">
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A79" s="21"/>
+      <c r="B79" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="D77" s="4" t="s">
+      <c r="C79" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="E77" t="s">
+      <c r="D79" s="17"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A80" s="21"/>
+      <c r="B80" s="3" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A78" s="19"/>
-      <c r="B78" s="3" t="s">
+      <c r="C80" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C78" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A79" s="19"/>
-      <c r="B79" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="C79" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="D79" s="17"/>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A80" s="19"/>
-      <c r="B80" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>110</v>
-      </c>
       <c r="D80" s="15" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A81" s="19"/>
+      <c r="A81" s="21"/>
       <c r="B81" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A82" s="19"/>
+      <c r="A82" s="21"/>
       <c r="B82" s="2" t="s">
         <v>21</v>
       </c>
@@ -2212,7 +2211,7 @@
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A83" s="19"/>
+      <c r="A83" s="21"/>
       <c r="B83" s="2" t="s">
         <v>23</v>
       </c>
@@ -2221,16 +2220,16 @@
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A84" s="19"/>
+      <c r="A84" s="21"/>
       <c r="B84" s="2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A85" s="19"/>
+      <c r="A85" s="21"/>
       <c r="B85" s="2" t="s">
         <v>25</v>
       </c>
@@ -2239,8 +2238,8 @@
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A88" t="s">
-        <v>290</v>
+      <c r="A88" s="8" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.15">
@@ -2251,188 +2250,188 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A92" s="22" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="B92" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A93" s="18"/>
+      <c r="B93" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A94" s="18"/>
+      <c r="B94" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A95" s="18"/>
+      <c r="B95" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C95" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="C92" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A93" s="20"/>
-      <c r="B93" s="3" t="s">
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A96" s="18"/>
+      <c r="B96" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="C93" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A94" s="20"/>
-      <c r="B94" s="3" t="s">
+      <c r="C96" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C94" s="3" t="s">
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A97" s="18"/>
+      <c r="B97" s="3" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A95" s="20"/>
-      <c r="B95" s="3" t="s">
+      <c r="C97" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="C95" s="3" t="s">
+      <c r="D97" s="4" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A96" s="20"/>
-      <c r="B96" s="3" t="s">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A98" s="18"/>
+      <c r="B98" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="C96" s="3" t="s">
+      <c r="C98" s="3" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A97" s="20"/>
-      <c r="B97" s="3" t="s">
+      <c r="D98" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="C97" s="3" t="s">
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A99" s="18"/>
+      <c r="B99" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A100" s="18"/>
+      <c r="B100" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="D97" s="4" t="s">
+      <c r="C100" s="3" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A98" s="20"/>
-      <c r="B98" s="3" t="s">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A101" s="18"/>
+      <c r="B101" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C98" s="3" t="s">
+      <c r="C101" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="D98" s="4" t="s">
+      <c r="D101" s="4" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A99" s="20"/>
-      <c r="B99" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C99" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A100" s="20"/>
-      <c r="B100" s="2" t="s">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A102" s="18"/>
+      <c r="B102" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C100" s="3" t="s">
+      <c r="C102" s="3" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A101" s="20"/>
-      <c r="B101" s="2" t="s">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A103" s="18"/>
+      <c r="B103" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C101" s="3" t="s">
+      <c r="C103" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="D101" s="4" t="s">
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A104" s="18"/>
+      <c r="B104" s="3" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A102" s="20"/>
-      <c r="B102" s="2" t="s">
+      <c r="C104" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="C102" s="3" t="s">
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A105" s="18"/>
+      <c r="B105" s="3" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A103" s="20"/>
-      <c r="B103" s="3" t="s">
+      <c r="C105" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="C103" s="3" t="s">
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A106" s="18"/>
+      <c r="B106" s="3" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A104" s="20"/>
-      <c r="B104" s="3" t="s">
+      <c r="C106" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="C104" s="3" t="s">
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A107" s="18"/>
+      <c r="B107" s="3" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A105" s="20"/>
-      <c r="B105" s="3" t="s">
+      <c r="C107" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="C105" s="3" t="s">
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A108" s="18"/>
+      <c r="B108" s="3" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A106" s="20"/>
-      <c r="B106" s="3" t="s">
+      <c r="C108" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C106" s="3" t="s">
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A109" s="18"/>
+      <c r="B109" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A110" s="18"/>
+      <c r="B110" s="2" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A107" s="20"/>
-      <c r="B107" s="3" t="s">
+      <c r="C110" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="C107" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A108" s="20"/>
-      <c r="B108" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="C108" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A109" s="20"/>
-      <c r="B109" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C109" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A110" s="20"/>
-      <c r="B110" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="C110" s="3" t="s">
-        <v>147</v>
-      </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A111" s="20"/>
+      <c r="A111" s="18"/>
       <c r="B111" s="2" t="s">
         <v>21</v>
       </c>
@@ -2441,7 +2440,7 @@
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A112" s="20"/>
+      <c r="A112" s="18"/>
       <c r="B112" s="2" t="s">
         <v>23</v>
       </c>
@@ -2450,16 +2449,16 @@
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A113" s="20"/>
+      <c r="A113" s="18"/>
       <c r="B113" s="2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A114" s="20"/>
+      <c r="A114" s="18"/>
       <c r="B114" s="2" t="s">
         <v>25</v>
       </c>
@@ -2468,107 +2467,107 @@
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A117" s="20" t="s">
-        <v>148</v>
+      <c r="A117" s="18" t="s">
+        <v>143</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A118" s="21"/>
       <c r="B118" s="3" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A119" s="21"/>
       <c r="B119" s="3" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A120" s="21"/>
       <c r="B120" s="3" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A121" s="21"/>
       <c r="B121" s="3" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A122" s="21"/>
       <c r="B122" s="3" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A123" s="21"/>
       <c r="B123" s="3" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A124" s="21"/>
       <c r="B124" s="3" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A125" s="21"/>
       <c r="B125" s="3" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A126" s="21"/>
       <c r="B126" s="3" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A127" s="21"/>
       <c r="B127" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.15">
@@ -2592,10 +2591,10 @@
     <row r="130" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A130" s="21"/>
       <c r="B130" s="2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.15">
@@ -2608,119 +2607,119 @@
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A136" s="20" t="s">
-        <v>165</v>
+      <c r="A136" s="18" t="s">
+        <v>160</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A137" s="21"/>
       <c r="B137" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A138" s="21"/>
       <c r="B138" s="3" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D138" s="4" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A139" s="21"/>
       <c r="B139" s="3" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A140" s="21"/>
       <c r="B140" s="3" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A141" s="21"/>
       <c r="B141" s="3" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D141" s="4" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A142" s="21"/>
       <c r="B142" s="3" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A143" s="21"/>
       <c r="B143" s="3" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A144" s="21"/>
       <c r="B144" s="3" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A145" s="21"/>
       <c r="B145" s="3" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A146" s="21"/>
       <c r="B146" s="3" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A147" s="21"/>
       <c r="B147" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.15">
@@ -2744,10 +2743,10 @@
     <row r="150" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A150" s="21"/>
       <c r="B150" s="2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.15">
@@ -2760,114 +2759,114 @@
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A153" s="20" t="s">
+      <c r="A153" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C153" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A154" s="18"/>
+      <c r="B154" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C154" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A155" s="18"/>
+      <c r="B155" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C155" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A156" s="18"/>
+      <c r="B156" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C156" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="B153" s="3" t="s">
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A157" s="18"/>
+      <c r="B157" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="C153" s="3" t="s">
+      <c r="C157" s="3" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A154" s="20"/>
-      <c r="B154" s="3" t="s">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A158" s="18"/>
+      <c r="B158" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="C154" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A155" s="20"/>
-      <c r="B155" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="C155" s="3" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A156" s="20"/>
-      <c r="B156" s="3" t="s">
+      <c r="C158" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="C156" s="3" t="s">
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A159" s="18"/>
+      <c r="B159" s="3" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A157" s="20"/>
-      <c r="B157" s="3" t="s">
+      <c r="C159" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="C157" s="3" t="s">
+      <c r="D159" s="4" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A158" s="20"/>
-      <c r="B158" s="3" t="s">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A160" s="18"/>
+      <c r="B160" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="C158" s="3" t="s">
+      <c r="C160" s="3" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A159" s="20"/>
-      <c r="B159" s="3" t="s">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A161" s="18"/>
+      <c r="B161" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="C159" s="3" t="s">
+      <c r="C161" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="D159" s="4" t="s">
+      <c r="D161" s="4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A162" s="18"/>
+      <c r="B162" s="3" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A160" s="20"/>
-      <c r="B160" s="3" t="s">
+      <c r="C162" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A163" s="18"/>
+      <c r="B163" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C163" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="C160" s="3" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A161" s="20"/>
-      <c r="B161" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="C161" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="D161" s="4" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A162" s="20"/>
-      <c r="B162" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="C162" s="3" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A163" s="20"/>
-      <c r="B163" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C163" s="3" t="s">
-        <v>206</v>
-      </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A164" s="20"/>
+      <c r="A164" s="18"/>
       <c r="B164" s="2" t="s">
         <v>21</v>
       </c>
@@ -2876,7 +2875,7 @@
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A165" s="20"/>
+      <c r="A165" s="18"/>
       <c r="B165" s="2" t="s">
         <v>23</v>
       </c>
@@ -2885,7 +2884,7 @@
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A166" s="20"/>
+      <c r="A166" s="18"/>
       <c r="B166" s="2" t="s">
         <v>25</v>
       </c>
@@ -2895,224 +2894,224 @@
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A169" s="18" t="s">
+        <v>202</v>
+      </c>
+      <c r="B169" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C169" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A170" s="21"/>
+      <c r="B170" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C170" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A171" s="21"/>
+      <c r="B171" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C171" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="B169" s="3" t="s">
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A172" s="21"/>
+      <c r="B172" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="C169" s="3" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A170" s="19"/>
-      <c r="B170" s="3" t="s">
+      <c r="C172" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="C170" s="3" t="s">
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A173" s="21"/>
+      <c r="B173" s="3" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A171" s="19"/>
-      <c r="B171" s="3" t="s">
+      <c r="C173" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="C171" s="3" t="s">
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A174" s="21"/>
+      <c r="B174" s="3" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A172" s="19"/>
-      <c r="B172" s="3" t="s">
+      <c r="C174" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="C172" s="3" t="s">
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A175" s="21"/>
+      <c r="B175" s="3" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A173" s="19"/>
-      <c r="B173" s="3" t="s">
+      <c r="C175" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="C173" s="3" t="s">
+      <c r="D175" s="4" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A174" s="19"/>
-      <c r="B174" s="3" t="s">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A176" s="21"/>
+      <c r="B176" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="C174" s="3" t="s">
+      <c r="C176" s="3" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A175" s="19"/>
-      <c r="B175" s="3" t="s">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A177" s="21"/>
+      <c r="B177" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="C175" s="3" t="s">
+      <c r="C177" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="D175" s="4" t="s">
+    </row>
+    <row r="178" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A178" s="21"/>
+      <c r="B178" s="3" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A176" s="19"/>
-      <c r="B176" s="3" t="s">
+      <c r="C178" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="C176" s="3" t="s">
+      <c r="E178" s="12"/>
+    </row>
+    <row r="179" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A179" s="21"/>
+      <c r="B179" s="3" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A177" s="19"/>
-      <c r="B177" s="3" t="s">
+      <c r="C179" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="C177" s="3" t="s">
+      <c r="D179" s="4" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="178" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A178" s="19"/>
-      <c r="B178" s="3" t="s">
+      <c r="E179" s="12"/>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A180" s="21"/>
+      <c r="B180" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="C178" s="3" t="s">
+      <c r="C180" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="E178" s="12"/>
-    </row>
-    <row r="179" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A179" s="19"/>
-      <c r="B179" s="3" t="s">
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A181" s="21"/>
+      <c r="B181" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="C179" s="3" t="s">
+      <c r="C181" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="D179" s="4" t="s">
+    </row>
+    <row r="182" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A182" s="21"/>
+      <c r="B182" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="E179" s="12"/>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A180" s="19"/>
-      <c r="B180" s="3" t="s">
+      <c r="C182" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="C180" s="3" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A181" s="19"/>
-      <c r="B181" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="C181" s="3" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A182" s="19"/>
-      <c r="B182" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="C182" s="3" t="s">
-        <v>236</v>
-      </c>
       <c r="E182" s="12"/>
     </row>
     <row r="183" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A183" s="19"/>
+      <c r="A183" s="21"/>
       <c r="B183" s="3"/>
       <c r="C183" s="11"/>
       <c r="E183" s="12"/>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A184" s="19"/>
+      <c r="A184" s="21"/>
       <c r="B184" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="C184" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A185" s="21"/>
+      <c r="B185" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="C185" s="3" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A186" s="21"/>
+      <c r="B186" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="C186" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="C184" s="3" t="s">
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A187" s="21"/>
+      <c r="B187" s="3" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A185" s="19"/>
-      <c r="B185" s="3" t="s">
+      <c r="C187" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="C185" s="3" t="s">
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A188" s="21"/>
+      <c r="B188" s="3" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A186" s="19"/>
-      <c r="B186" s="3" t="s">
+      <c r="C188" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="C186" s="3" t="s">
+      <c r="E188" s="13" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A189" s="21"/>
+      <c r="B189" s="3" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A187" s="19"/>
-      <c r="B187" s="3" t="s">
+      <c r="C189" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="C187" s="3" t="s">
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A190" s="21"/>
+      <c r="B190" s="3" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A188" s="19"/>
-      <c r="B188" s="3" t="s">
+      <c r="C190" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="C188" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="E188" s="13" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A189" s="19"/>
-      <c r="B189" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="C189" s="3" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A190" s="19"/>
-      <c r="B190" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="C190" s="3" t="s">
-        <v>250</v>
-      </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A191" s="19"/>
+      <c r="A191" s="21"/>
       <c r="B191" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A192" s="19"/>
+      <c r="A192" s="21"/>
       <c r="B192" s="2" t="s">
         <v>21</v>
       </c>
@@ -3121,7 +3120,7 @@
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A193" s="19"/>
+      <c r="A193" s="21"/>
       <c r="B193" s="2" t="s">
         <v>23</v>
       </c>
@@ -3130,7 +3129,7 @@
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A194" s="19"/>
+      <c r="A194" s="21"/>
       <c r="B194" s="2" t="s">
         <v>25</v>
       </c>
@@ -3139,173 +3138,173 @@
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A197" s="20" t="s">
+      <c r="A197" s="18" t="s">
+        <v>246</v>
+      </c>
+      <c r="B197" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="C197" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A198" s="18"/>
+      <c r="B198" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="C198" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A199" s="18"/>
+      <c r="B199" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="C199" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A200" s="18"/>
+      <c r="B200" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="B197" s="3" t="s">
+      <c r="C200" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A201" s="18"/>
+      <c r="B201" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="C197" s="3" t="s">
+      <c r="C201" s="3" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A198" s="20"/>
-      <c r="B198" s="3" t="s">
+      <c r="D201" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="C198" s="3" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A199" s="20"/>
-      <c r="B199" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="C199" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A200" s="20"/>
-      <c r="B200" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="C200" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A201" s="20"/>
-      <c r="B201" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="C201" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="D201" s="4" t="s">
-        <v>259</v>
-      </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A202" s="20"/>
+      <c r="A202" s="18"/>
       <c r="B202" s="11"/>
       <c r="C202" s="11"/>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A203" s="20"/>
+      <c r="A203" s="18"/>
       <c r="B203" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="C203" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A204" s="18"/>
+      <c r="B204" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="C204" s="3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A205" s="18"/>
+      <c r="B205" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="C205" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="C203" s="3" t="s">
+      <c r="D205" s="4" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A204" s="20"/>
-      <c r="B204" s="3" t="s">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A206" s="18"/>
+      <c r="B206" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="C204" s="3" t="s">
+      <c r="C206" s="3" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A205" s="20"/>
-      <c r="B205" s="3" t="s">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A207" s="18"/>
+      <c r="B207" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="C205" s="3" t="s">
+      <c r="C207" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="D205" s="4" t="s">
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A208" s="18"/>
+      <c r="B208" s="3" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A206" s="20"/>
-      <c r="B206" s="3" t="s">
+      <c r="C208" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="C206" s="3" t="s">
+      <c r="D208" s="4" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A207" s="20"/>
-      <c r="B207" s="3" t="s">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A209" s="18"/>
+      <c r="B209" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="C207" s="3" t="s">
+      <c r="C209" s="3" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A208" s="20"/>
-      <c r="B208" s="3" t="s">
+      <c r="D209" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="C208" s="3" t="s">
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A210" s="18"/>
+      <c r="B210" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="D208" s="4" t="s">
+      <c r="C210" s="3" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A209" s="20"/>
-      <c r="B209" s="3" t="s">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A211" s="18"/>
+      <c r="B211" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="C209" s="3" t="s">
+      <c r="C211" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="D209" s="4" t="s">
+      <c r="D211" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A212" s="18"/>
+      <c r="B212" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C212" s="3" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A210" s="20"/>
-      <c r="B210" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="C210" s="3" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A211" s="20"/>
-      <c r="B211" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="C211" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="D211" s="4" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A212" s="20"/>
-      <c r="B212" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="C212" s="3" t="s">
-        <v>281</v>
-      </c>
-    </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A213" s="20"/>
+      <c r="A213" s="18"/>
       <c r="B213" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C213" s="3" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A214" s="20"/>
+      <c r="A214" s="18"/>
       <c r="B214" s="2" t="s">
         <v>21</v>
       </c>
@@ -3314,7 +3313,7 @@
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A215" s="20"/>
+      <c r="A215" s="18"/>
       <c r="B215" s="2" t="s">
         <v>23</v>
       </c>
@@ -3323,7 +3322,7 @@
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A216" s="20"/>
+      <c r="A216" s="18"/>
       <c r="B216" s="2" t="s">
         <v>25</v>
       </c>
@@ -3332,30 +3331,25 @@
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A217" s="20"/>
+      <c r="A217" s="18"/>
       <c r="B217" s="3" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C217" s="3" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A218" s="20"/>
+      <c r="A218" s="18"/>
       <c r="B218" s="3" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C218" s="3" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A1:A13"/>
-    <mergeCell ref="A16:A30"/>
-    <mergeCell ref="A33:A37"/>
-    <mergeCell ref="A41:A49"/>
-    <mergeCell ref="A51:A69"/>
     <mergeCell ref="A169:A194"/>
     <mergeCell ref="A197:A218"/>
     <mergeCell ref="A72:A85"/>
@@ -3363,6 +3357,11 @@
     <mergeCell ref="A117:A131"/>
     <mergeCell ref="A136:A151"/>
     <mergeCell ref="A153:A166"/>
+    <mergeCell ref="A1:A13"/>
+    <mergeCell ref="A16:A30"/>
+    <mergeCell ref="A33:A37"/>
+    <mergeCell ref="A41:A49"/>
+    <mergeCell ref="A51:A69"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
